--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.406</v>
+        <v>-0.177</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.736</v>
+        <v>28.242</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.354</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.952</v>
+        <v>27.329</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.622</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.756</v>
+        <v>27.508</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.504577804815646</v>
+        <v>29.94914550968327</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>21.99213192749923</v>
+        <v>29.94914554464513</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.90065750374049</v>
+        <v>29.94914555591832</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.841274264370504</v>
+        <v>29.9491455135704</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.34493231212549</v>
+        <v>29.94914555316157</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.91011290951484</v>
+        <v>29.94914556592745</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10.68901804601681</v>
+        <v>29.94914552243393</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.26235962737305</v>
+        <v>29.94914555772102</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>31.21541545564479</v>
+        <v>29.94914556909908</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27.63911147415055</v>
+        <v>29.94914556905032</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>34.48165385766831</v>
+        <v>29.94914558638934</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>38.02577273410793</v>
+        <v>29.94914559206912</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.83234503809894</v>
+        <v>29.94914554385814</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.08063273017757</v>
+        <v>29.94914558589493</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>37.77604639467096</v>
+        <v>29.9491455995899</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8.139613457265629</v>
+        <v>29.9491455834598</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.78992197144687</v>
+        <v>29.94914562364198</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.28480342191159</v>
+        <v>29.94914563595385</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.331489096191174</v>
+        <v>29.94914558726952</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>22.41781223699686</v>
+        <v>29.94914563277222</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.64442757029741</v>
+        <v>29.94914564671432</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>11.18887100484734</v>
+        <v>29.94914560142997</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.95222396118457</v>
+        <v>29.94914564198593</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>11.40157189026141</v>
+        <v>29.94914553177304</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.47977888194102</v>
+        <v>29.94914556831786</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>32.38959587896556</v>
+        <v>29.94914557946158</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8.761366472569541</v>
+        <v>29.94914553781222</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.93333234576636</v>
+        <v>29.94914557919595</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.49983828934705</v>
+        <v>29.94914559181521</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>16.90460389840141</v>
+        <v>29.94914554763606</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>33.07290789518247</v>
+        <v>29.94914558452083</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.0271505479283</v>
+        <v>29.94914559576821</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.68509620832894</v>
+        <v>29.94914559572154</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>41.71627761904546</v>
+        <v>29.94914561352924</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>45.28698201286982</v>
+        <v>29.94914561920292</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>19.25568955130177</v>
+        <v>29.94914556878651</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>38.23442746901681</v>
+        <v>29.94914561271334</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>44.93979804840808</v>
+        <v>29.94914562618479</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>14.32667468752497</v>
+        <v>29.94914561049413</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.64545119112623</v>
+        <v>29.94914565248594</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>39.15794705133018</v>
+        <v>29.94914566466057</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8.67175042991628</v>
+        <v>29.94914561668305</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.51449496133575</v>
+        <v>29.949145664235</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.7609015666067</v>
+        <v>29.94914567802168</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>18.91743615613012</v>
+        <v>29.9491456320115</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>38.35419491884169</v>
+        <v>29.94914567439394</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>12.58033769487207</v>
+        <v>29.94914553682231</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.6810157202617</v>
+        <v>29.94914557325685</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>33.54802110634322</v>
+        <v>29.94914558427229</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>10.26830748206694</v>
+        <v>29.94914554341868</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.46592130633055</v>
+        <v>29.94914558467753</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>33.98384440902138</v>
+        <v>29.94914559715152</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>18.41472292933309</v>
+        <v>29.94914555326507</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>34.60594995789764</v>
+        <v>29.94914559003854</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>39.51696138547909</v>
+        <v>29.94914560115645</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>36.28917896063157</v>
+        <v>29.94914560106318</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>43.30769707492235</v>
+        <v>29.94914561874855</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>46.85454090811936</v>
+        <v>29.94914562437611</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>20.81620424310088</v>
+        <v>29.94914557404828</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>39.83396527084112</v>
+        <v>29.94914561787049</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>46.48168066614553</v>
+        <v>29.94914563116654</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>15.83183877145543</v>
+        <v>29.94914561554033</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.1635362136448</v>
+        <v>29.94914565740397</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>40.6329670287531</v>
+        <v>29.94914566944302</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>10.56543912873301</v>
+        <v>29.94914562232216</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>32.42301046613954</v>
+        <v>29.94914566972897</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>38.62056495566447</v>
+        <v>29.94914568336211</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>20.82223133138143</v>
+        <v>29.9491456376461</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>40.2722715635053</v>
+        <v>29.94914567989917</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>11.53310314624041</v>
+        <v>29.94914551958891</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>27.63723287198936</v>
+        <v>29.94914555537718</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>32.5221211122705</v>
+        <v>29.94914556671543</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>8.41271409151172</v>
+        <v>29.94914552504706</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>26.61356109532609</v>
+        <v>29.94914556557406</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>32.15193634771345</v>
+        <v>29.94914557841362</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>16.71545872135954</v>
+        <v>29.9491455342415</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>32.90933150017742</v>
+        <v>29.94914557036269</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>37.83848800185712</v>
+        <v>29.94914558180642</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>34.46703114010334</v>
+        <v>29.94914558159839</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>41.53445171229448</v>
+        <v>29.94914559917904</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>45.08869176001749</v>
+        <v>29.94914560493543</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>18.99564905880661</v>
+        <v>29.94914555541873</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>37.98096107966573</v>
+        <v>29.94914559851977</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>44.6590216757673</v>
+        <v>29.94914561224412</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>14.21974422396123</v>
+        <v>29.94914559570095</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>33.58391031878723</v>
+        <v>29.94914563683369</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>39.06517182485367</v>
+        <v>29.94914564922862</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>8.016096750232595</v>
+        <v>29.94914560119953</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.90977842622243</v>
+        <v>29.94914564777866</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>36.12088309420419</v>
+        <v>29.94914566181481</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>18.43144083708508</v>
+        <v>29.94914561578366</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>37.91340559824738</v>
+        <v>29.94914565729903</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.49327010469241</v>
+        <v>29.94914565441234</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>32.01047374950867</v>
+        <v>29.94914565123811</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>40.94010264687898</v>
+        <v>29.94914567160748</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>45.15101602877697</v>
+        <v>29.94914567769966</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.430663798899</v>
+        <v>29.94914562066394</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>38.46614788717871</v>
+        <v>29.94914566966089</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>45.59480994523378</v>
+        <v>29.9491456844622</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>14.4720167666838</v>
+        <v>29.94914562753341</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>33.76600851305712</v>
+        <v>29.94914566721932</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>39.47216699921339</v>
+        <v>29.94914567920687</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>9.476341116886324</v>
+        <v>29.94914563278219</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>31.29013409725656</v>
+        <v>29.94914567772292</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.75830106420596</v>
+        <v>29.94914569129774</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>20.60719103220933</v>
+        <v>29.94914564817659</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>40.01939326497568</v>
+        <v>29.94914568823167</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>45.77444843352504</v>
+        <v>29.94914570033073</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>44.43505784940903</v>
+        <v>29.94914569656163</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>53.63799197964039</v>
+        <v>29.9491457162581</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>58.03747645960202</v>
+        <v>29.94914572182202</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>26.7262034978787</v>
+        <v>29.94914566498529</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>50.62375179699809</v>
+        <v>29.94914571320737</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>58.04274988934839</v>
+        <v>29.94914572761573</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>43.91285404020806</v>
+        <v>29.94914568668182</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>40.59192593103052</v>
+        <v>29.94914568313703</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>49.73053657292106</v>
+        <v>29.94914570397863</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>53.97898113768824</v>
+        <v>29.94914571004837</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>23.35872343831198</v>
+        <v>29.94914565065337</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>47.22802740497683</v>
+        <v>29.94914570180781</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>54.38248493116173</v>
+        <v>29.94914571636891</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>21.2277975206109</v>
+        <v>29.94914565513958</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.18299356545555</v>
+        <v>29.94914569661531</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>46.89842244166375</v>
+        <v>29.94914570843137</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>17.38856439311479</v>
+        <v>29.94914566276476</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.95053242256532</v>
+        <v>29.9491457097323</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>46.42909411960818</v>
+        <v>29.94914572311293</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.95163585624629</v>
+        <v>29.94914567931113</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>49.02988753059209</v>
+        <v>29.94914572117268</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>54.79420338223724</v>
+        <v>29.94914573309866</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>53.64271507252561</v>
+        <v>29.94914572891257</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>63.05251599412546</v>
+        <v>29.94914574906461</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>67.48559967187876</v>
+        <v>29.94914575458926</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>35.27219414179071</v>
+        <v>29.94914569548903</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>59.99196024697696</v>
+        <v>29.94914574582723</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>67.4326571376973</v>
+        <v>29.94914575995266</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>45.78746416411411</v>
+        <v>29.94914569205022</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>42.56396661473985</v>
+        <v>29.94914568839504</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>51.67575701732301</v>
+        <v>29.94914570907872</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>55.89696320346826</v>
+        <v>29.94914571509607</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.29648886383761</v>
+        <v>29.94914565587556</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>49.18765921120378</v>
+        <v>29.94914570689686</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>56.28480637893446</v>
+        <v>29.94914572127064</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>22.83026072622513</v>
+        <v>29.9491456598946</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>42.78970803259662</v>
+        <v>29.9491457012595</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>48.45696319784216</v>
+        <v>29.94914571292834</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>19.36349515460441</v>
+        <v>29.94914566809971</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>41.93047841524901</v>
+        <v>29.94914571494174</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>48.35439613470166</v>
+        <v>29.94914572815566</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>30.93775511663199</v>
+        <v>29.94914568462903</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>51.0205373611813</v>
+        <v>29.94914572637872</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>56.7362440434549</v>
+        <v>29.94914573815612</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>55.66937161154117</v>
+        <v>29.94914573386056</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>65.04963224438228</v>
+        <v>29.94914575386392</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>69.45165349282696</v>
+        <v>29.94914575933353</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>37.27471183506819</v>
+        <v>29.94914570040742</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>62.00465441705568</v>
+        <v>29.94914575063279</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>69.38344585399234</v>
+        <v>29.94914576455668</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>43.44058877236518</v>
+        <v>29.94914566980927</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>40.16637750300186</v>
+        <v>29.94914566619613</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>49.36319003940645</v>
+        <v>29.94914568681714</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>53.59422808288596</v>
+        <v>29.94914569298713</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>22.85756484762543</v>
+        <v>29.94914563458847</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>46.76787119741512</v>
+        <v>29.94914568480473</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>53.88410583584129</v>
+        <v>29.94914569964338</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>20.71061201507979</v>
+        <v>29.94914564061455</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>40.71822160442146</v>
+        <v>29.94914568128365</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>46.40829859598396</v>
+        <v>29.94914569330993</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>16.3401209410439</v>
+        <v>29.94914564757414</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>38.96097283583182</v>
+        <v>29.94914569362824</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>45.41090415085195</v>
+        <v>29.94914570724693</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>28.06369314972186</v>
+        <v>29.94914566340809</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>48.19424640061392</v>
+        <v>29.94914570445551</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>53.93300268329094</v>
+        <v>29.94914571659367</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>52.84365263445845</v>
+        <v>29.94914571237698</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>62.31382511761285</v>
+        <v>29.94914573232833</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>66.73257431120069</v>
+        <v>29.94914573794363</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>34.40803443521227</v>
+        <v>29.94914567973697</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>59.18044203327641</v>
+        <v>29.94914572921109</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>66.58808649691028</v>
+        <v>29.94914574360225</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>2.395337109825395</v>
+        <v>29.94914547043105</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>17.35581969809668</v>
+        <v>29.9491455053628</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>21.87654549734697</v>
+        <v>29.94914551641227</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-1.813565594334367</v>
+        <v>29.94914547221897</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>15.09447345996629</v>
+        <v>29.94914551177603</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>20.22059716858638</v>
+        <v>29.94914552428856</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>5.721709366970472</v>
+        <v>29.94914547977337</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>20.76483677212186</v>
+        <v>29.94914551503007</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>25.32680568630022</v>
+        <v>29.94914552618232</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>21.34699262881151</v>
+        <v>29.94914552770949</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>27.93527923048079</v>
+        <v>29.94914554499651</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>31.37337860326134</v>
+        <v>29.94914555051528</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>6.162942733337495</v>
+        <v>29.94914550277426</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>23.82379126094417</v>
+        <v>29.94914554494891</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.96600198965328</v>
+        <v>29.9491455583481</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>5.076622743722929</v>
+        <v>29.94914554446525</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>23.29219728739214</v>
+        <v>29.94914558480093</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.52999156871394</v>
+        <v>29.94914559695959</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-2.456517306539233</v>
+        <v>29.94914554644176</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>18.13847031588053</v>
+        <v>29.94914559211829</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>24.07424171997509</v>
+        <v>29.94914560588688</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>7.431772325984888</v>
+        <v>29.94914555954913</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.75774894638631</v>
+        <v>29.94914560026004</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>6.967070398331689</v>
+        <v>29.94914549088538</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>22.50968515345391</v>
+        <v>29.94914552739037</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>27.03037306154081</v>
+        <v>29.94914553833435</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>3.763083879702087</v>
+        <v>29.9491454947819</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>21.32976388118359</v>
+        <v>29.94914553612053</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>26.45573306520729</v>
+        <v>29.9491455485136</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>11.56331003958364</v>
+        <v>29.94914550318166</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>27.19281755848527</v>
+        <v>29.94914554002624</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>31.75464314462404</v>
+        <v>29.94914555107202</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>27.98971112029309</v>
+        <v>29.94914555258377</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>34.76293545119985</v>
+        <v>29.9491455703389</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>38.23111929249679</v>
+        <v>29.9491455758703</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12.18548323517413</v>
+        <v>29.9491455259316</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>30.56966177519004</v>
+        <v>29.94914556999129</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>36.71833891350371</v>
+        <v>29.94914558320039</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>10.93675577446713</v>
+        <v>29.94914556977323</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.81338795811898</v>
+        <v>29.94914561191362</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.06970048543106</v>
+        <v>29.94914562396845</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>4.535199947293339</v>
+        <v>29.94914557411475</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>25.87818464111113</v>
+        <v>29.94914562183495</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>31.83480489330816</v>
+        <v>29.94914563548597</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>14.78051964975312</v>
+        <v>29.94914558826408</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>33.77243196881218</v>
+        <v>29.94914563079648</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8.114009150330435</v>
+        <v>29.94914549617468</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>23.68271087790489</v>
+        <v>29.94914553256795</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>28.16333757556647</v>
+        <v>29.9491455433874</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>5.238611958877463</v>
+        <v>29.94914550064346</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>22.83501619103862</v>
+        <v>29.94914554185556</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>27.9155230062589</v>
+        <v>29.94914555410761</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>13.03736977028739</v>
+        <v>29.9491455090619</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.6934370506813</v>
+        <v>29.94914554579371</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>33.2148075885713</v>
+        <v>29.9491455567138</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.56107253915262</v>
+        <v>29.94914555815782</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>36.32310389924896</v>
+        <v>29.9491455757885</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>39.7697983291596</v>
+        <v>29.9491455812766</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>13.71635270008361</v>
+        <v>29.94914553142385</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>32.14431455816269</v>
+        <v>29.94914557537544</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>38.23915439929306</v>
+        <v>29.94914558841535</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>12.39918812727704</v>
+        <v>29.94914557501491</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>31.29180170788495</v>
+        <v>29.94914561702382</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>36.50751045114171</v>
+        <v>29.94914562894679</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>6.387209833894257</v>
+        <v>29.94914557996492</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>27.74846603432835</v>
+        <v>29.94914562753624</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>33.65902850044522</v>
+        <v>29.94914564103793</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>16.63502571824722</v>
+        <v>29.94914559409886</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>35.64329577642922</v>
+        <v>29.94914563649855</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>7.137684546916518</v>
+        <v>29.94914547969594</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>22.70097352425364</v>
+        <v>29.94914551544665</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>27.19915907594026</v>
+        <v>29.94914552655879</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>3.464318695436965</v>
+        <v>29.94914548301707</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>21.05395588607984</v>
+        <v>29.94914552350154</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>26.15454059609342</v>
+        <v>29.94914553608504</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>11.42632304193081</v>
+        <v>29.94914549085654</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>27.07612240915457</v>
+        <v>29.94914552693982</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>31.61530911598352</v>
+        <v>29.94914553815533</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>27.81119000048993</v>
+        <v>29.94914553953229</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>34.61904888155607</v>
+        <v>29.94914555705299</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>38.07370723234445</v>
+        <v>29.94914556264088</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>11.95977167150051</v>
+        <v>29.94914551361672</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>30.34398329752594</v>
+        <v>29.94914555684666</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>36.46835321048747</v>
+        <v>29.94914557027476</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>10.88342824010373</v>
+        <v>29.94914555595919</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.80045699956045</v>
+        <v>29.94914559723801</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>35.03156182550963</v>
+        <v>29.94914560947876</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>3.943273444829302</v>
+        <v>29.94914555959537</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>25.33155704958765</v>
+        <v>29.94914560633992</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>31.2597002188965</v>
+        <v>29.94914562020147</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>14.36499503500733</v>
+        <v>29.9491455730724</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>33.3970891177288</v>
+        <v>29.94914561473521</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>31.03965228049483</v>
+        <v>29.9491456125318</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>27.05639656870881</v>
+        <v>29.9491456110107</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>35.75210628958994</v>
+        <v>29.94914563134721</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>39.94796407057858</v>
+        <v>29.94914563733467</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>9.970006679153723</v>
+        <v>29.94914558059219</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>32.47974921442951</v>
+        <v>29.94914562991502</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>39.24263597832586</v>
+        <v>29.94914564455194</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>11.68973556879511</v>
+        <v>29.9491455921408</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>30.70067049664074</v>
+        <v>29.94914563206482</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.13867339159406</v>
+        <v>29.94914564392426</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>5.702372856356288</v>
+        <v>29.94914559583625</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>27.1965486312712</v>
+        <v>29.94914564104662</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>33.36156325921358</v>
+        <v>29.94914565447637</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>16.9556301068122</v>
+        <v>29.9491456104142</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>36.08339014449862</v>
+        <v>29.94914565070961</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>41.56829129227008</v>
+        <v>29.94914566267937</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>39.64829839490661</v>
+        <v>29.94914566058137</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>48.63133097153566</v>
+        <v>29.94914568029502</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>53.03202509965796</v>
+        <v>29.9491456857769</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>21.36346720013622</v>
+        <v>29.94914562901229</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>44.9095106065638</v>
+        <v>29.94914567770057</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>51.95280653094093</v>
+        <v>29.94914569195056</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>39.07287621315142</v>
+        <v>29.94914564296345</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>35.23204571030967</v>
+        <v>29.94914564106034</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>44.13319553451252</v>
+        <v>29.94914566187369</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>48.37170162252123</v>
+        <v>29.94914566786483</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>17.49099554732778</v>
+        <v>29.94914560874904</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>40.82816937508515</v>
+        <v>29.94914566023076</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>47.61595770253424</v>
+        <v>29.9491456746715</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>18.15834526753157</v>
+        <v>29.94914561819259</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>37.82460279058757</v>
+        <v>29.9491456599056</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>43.27170994206102</v>
+        <v>29.94914567162343</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>13.31041913848676</v>
+        <v>29.94914562426468</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>35.54607576435569</v>
+        <v>29.94914567150093</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>41.72133210589826</v>
+        <v>29.94914568477031</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>24.96637879722481</v>
+        <v>29.94914563988577</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>44.75425724296654</v>
+        <v>29.94914568198682</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>50.24826976310667</v>
+        <v>29.94914569381365</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>48.49726015467161</v>
+        <v>29.94914569129797</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>57.68186671541448</v>
+        <v>29.94914571147494</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>62.12036345390643</v>
+        <v>29.94914571693774</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.5483212446168</v>
+        <v>29.94914565788664</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>53.91118696491551</v>
+        <v>29.94914570869969</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>60.97434679482568</v>
+        <v>29.94914572270586</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>40.90275937908346</v>
+        <v>29.94914564853243</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>37.15642080982176</v>
+        <v>29.9491456464988</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>46.03212731499816</v>
+        <v>29.94914566715314</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>50.24544093146444</v>
+        <v>29.94914567309445</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>19.38407738056665</v>
+        <v>29.94914561414785</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>42.74754349188877</v>
+        <v>29.94914566549123</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>49.48123296540861</v>
+        <v>29.94914567975044</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>19.72403689175652</v>
+        <v>29.94914562312547</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>39.39671702465787</v>
+        <v>29.94914566472497</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>44.79775893277305</v>
+        <v>29.94914567629888</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>15.25266351525449</v>
+        <v>29.949145629792</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>37.49577361035653</v>
+        <v>29.9491456768997</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>43.61877848673012</v>
+        <v>29.94914569000611</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>26.91080219758956</v>
+        <v>29.94914564538552</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>46.70539052133329</v>
+        <v>29.949145687372</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>52.1529225897598</v>
+        <v>29.94914569905358</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>50.48431108333018</v>
+        <v>29.9491456964082</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>59.6401720139858</v>
+        <v>29.94914571643679</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>64.04915137326131</v>
+        <v>29.94914572184645</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>31.51464901991192</v>
+        <v>29.9491456629639</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>55.8908280675077</v>
+        <v>29.94914571366029</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>62.89492446713673</v>
+        <v>29.94914572747038</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>38.67213654661199</v>
+        <v>29.94914562708983</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>34.86568021736619</v>
+        <v>29.94914562514752</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>43.82359241359667</v>
+        <v>29.94914564573105</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>48.05035429822959</v>
+        <v>29.94914565178878</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>17.04371244398546</v>
+        <v>29.94914559369361</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>40.41540411902691</v>
+        <v>29.94914564422653</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>47.17266442643344</v>
+        <v>29.94914565890272</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>17.69470997076637</v>
+        <v>29.94914560454414</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>37.40970353700473</v>
+        <v>29.94914564544715</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>42.83673605044866</v>
+        <v>29.94914565734676</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>12.31887839786101</v>
+        <v>29.94914560992788</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>34.60927128033438</v>
+        <v>29.94914565624685</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>40.76187399857512</v>
+        <v>29.9491456697221</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>24.14398443675758</v>
+        <v>29.94914562489981</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>43.98046837394039</v>
+        <v>29.94914566618331</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>49.45424565855551</v>
+        <v>29.94914567819362</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>47.75242392448223</v>
+        <v>29.94914567566395</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>56.99667525166088</v>
+        <v>29.94914569563283</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>61.42621683843012</v>
+        <v>29.94914570116065</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.7316952676817</v>
+        <v>29.94914564302872</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>53.14217167249235</v>
+        <v>29.94914569296656</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>60.17903443107701</v>
+        <v>29.949145707204</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>7.917756828316268</v>
+        <v>29.94914551051916</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>23.8068888430124</v>
+        <v>29.94914554585583</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.53933578797061</v>
+        <v>29.94914555698956</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>4.367346024302591</v>
+        <v>29.94914551439258</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>22.32583986134148</v>
+        <v>29.94914555440819</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>27.69163963386089</v>
+        <v>29.94914556701614</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>12.32156302915934</v>
+        <v>29.94914552335603</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.29988592873195</v>
+        <v>29.94914555902142</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>33.07537117548965</v>
+        <v>29.94914557025872</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.24811054597723</v>
+        <v>29.94914556995483</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>36.29861204370503</v>
+        <v>29.94914558737953</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>39.7359895894325</v>
+        <v>29.94914559296793</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>14.02262265608609</v>
+        <v>29.94914554432765</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>32.7324135278912</v>
+        <v>29.94914558679406</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>39.20587766066372</v>
+        <v>29.94914560032039</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>10.96529687959026</v>
+        <v>29.949145585227</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>30.04952957205337</v>
+        <v>29.94914562584324</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>35.32524089409057</v>
+        <v>29.94914563797448</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>4.174536797229919</v>
+        <v>29.94914558902152</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25.75220104062441</v>
+        <v>29.94914563501575</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>31.73060062152065</v>
+        <v>29.9491456487533</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>14.28199000282664</v>
+        <v>29.94914560336142</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>33.48283124736594</v>
+        <v>29.94914564435547</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>12.82968910025869</v>
+        <v>29.94914553247711</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.31518973271712</v>
+        <v>29.94914556940239</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>34.04355801155995</v>
+        <v>29.9491455803994</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>10.29896346856207</v>
+        <v>29.94914553849563</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.93224123263452</v>
+        <v>29.9491455803102</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>34.29328793034436</v>
+        <v>29.94914559276333</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>18.54737402805475</v>
+        <v>29.94914554839819</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>35.12642933692511</v>
+        <v>29.94914558566697</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>39.89768649494894</v>
+        <v>29.94914559676628</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>36.30010428577862</v>
+        <v>29.94914559645133</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>43.54054762904627</v>
+        <v>29.94914561434486</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>47.00222775594186</v>
+        <v>29.94914561992409</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>20.44578434865026</v>
+        <v>29.94914556907685</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>39.89286165931399</v>
+        <v>29.94914561343801</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>46.3698446108711</v>
+        <v>29.94914562673342</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>17.17693345301066</v>
+        <v>29.9491456120726</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>36.93526273697651</v>
+        <v>29.94914565450232</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>42.22217397501052</v>
+        <v>29.94914566648738</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>11.53491076248748</v>
+        <v>29.94914561823975</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>33.87536948773243</v>
+        <v>29.9491456662876</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>39.86630124016271</v>
+        <v>29.9491456798596</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>22.02954222392959</v>
+        <v>29.94914563372143</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>41.90946879152671</v>
+        <v>29.94914567654585</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>13.99918452333054</v>
+        <v>29.94914553750494</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>30.5052675773967</v>
+        <v>29.94914557431744</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>35.19046488417169</v>
+        <v>29.94914558518521</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>11.79544663037362</v>
+        <v>29.94914554408299</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>30.45223480001182</v>
+        <v>29.94914558576984</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>35.76429257573541</v>
+        <v>29.94914559807662</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>20.04566710512747</v>
+        <v>29.94914555400232</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>36.64574341428056</v>
+        <v>29.94914559115727</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>41.37340704533127</v>
+        <v>29.94914560212614</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>37.89146708441249</v>
+        <v>29.94914560176824</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>45.1178865478866</v>
+        <v>29.94914561953828</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>48.55578875777629</v>
+        <v>29.94914562507121</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>21.99586211506274</v>
+        <v>29.94914557431672</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>41.4799054728899</v>
+        <v>29.94914561856972</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>47.89894084048691</v>
+        <v>29.94914563168891</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>18.66329674470496</v>
+        <v>29.94914561707188</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>38.43235556906415</v>
+        <v>29.94914565937025</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>43.67595174953899</v>
+        <v>29.94914567121844</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>13.40910619108854</v>
+        <v>29.94914562383373</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>35.7619112985349</v>
+        <v>29.94914567173284</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>41.7037098430522</v>
+        <v>29.94914568514984</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>23.9121473802923</v>
+        <v>29.94914563930291</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>43.8031483070877</v>
+        <v>29.94914568199476</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>12.93475564887326</v>
+        <v>29.94914552043092</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.44856360572699</v>
+        <v>29.94914555659908</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>34.15291458501963</v>
+        <v>29.94914556779076</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>9.924524938368172</v>
+        <v>29.9491455258784</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.58938363818613</v>
+        <v>29.94914556683559</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>33.9233306482405</v>
+        <v>29.94914557950916</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>18.33304594367156</v>
+        <v>29.9491455351634</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>34.9400734667785</v>
+        <v>29.949145571668</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>39.68716265222962</v>
+        <v>29.94914558296379</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>36.05607634457589</v>
+        <v>29.94914558250255</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>43.33468628533703</v>
+        <v>29.94914560016799</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>46.7804624761538</v>
+        <v>29.94914560582849</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>20.1576859224555</v>
+        <v>29.94914555588004</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>39.61406022967512</v>
+        <v>29.94914559941446</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>46.06492329143418</v>
+        <v>29.94914561296235</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>17.05986695935089</v>
+        <v>29.9491455974396</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>36.86612431801451</v>
+        <v>29.94914563901139</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>42.12291944229332</v>
+        <v>29.94914565121641</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>10.8693555496128</v>
+        <v>29.94914560292556</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>33.2636247012208</v>
+        <v>29.94914565000187</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>39.22051909797429</v>
+        <v>29.94914566382296</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>21.53608504059699</v>
+        <v>29.94914561767659</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>41.46377504545767</v>
+        <v>29.94914565963509</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>38.80282033018869</v>
+        <v>29.94914565659957</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>35.0782297039656</v>
+        <v>29.94914565324549</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>44.24462851620558</v>
+        <v>29.94914567371303</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>48.32109812609457</v>
+        <v>29.94914567970423</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>18.06541315072939</v>
+        <v>29.94914562221353</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>41.59234285787115</v>
+        <v>29.9491456717075</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>48.45556041543136</v>
+        <v>29.94914568630344</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>16.79123377478991</v>
+        <v>29.94914562906054</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>36.49334910307351</v>
+        <v>29.94914566914788</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>41.96881395046024</v>
+        <v>29.94914568097315</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>11.70672219109697</v>
+        <v>29.94914563428427</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>33.98267578121935</v>
+        <v>29.94914567967958</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>40.18956598268249</v>
+        <v>29.94914569307065</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>23.09905875557986</v>
+        <v>29.94914564987054</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>42.9227906007295</v>
+        <v>29.94914569033079</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>48.44510389448169</v>
+        <v>29.94914570226607</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>46.89848544302137</v>
+        <v>29.94914569837976</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>56.31763171108653</v>
+        <v>29.94914571817223</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>60.58741666405486</v>
+        <v>29.94914572365323</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>28.7745003825878</v>
+        <v>29.9491456663768</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>53.14392135692543</v>
+        <v>29.94914571506744</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>60.28031038629528</v>
+        <v>29.94914572929315</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>47.24060415051355</v>
+        <v>29.9491456886424</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>43.67559223609007</v>
+        <v>29.94914568490978</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>53.05196602902072</v>
+        <v>29.94914570584963</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>57.16310367039245</v>
+        <v>29.9491457118149</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>26.00383716513555</v>
+        <v>29.94914565196792</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>50.37116324039665</v>
+        <v>29.9491457036212</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>57.25249220464305</v>
+        <v>29.94914571796751</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>23.55616214482463</v>
+        <v>29.94914565647408</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>43.9245578812528</v>
+        <v>29.94914569835411</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>49.4024694634642</v>
+        <v>29.94914570999979</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>19.62443482017482</v>
+        <v>29.94914566407156</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>42.65430985946129</v>
+        <v>29.94914571149693</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>48.86387119591172</v>
+        <v>29.94914572468462</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>31.4470658929438</v>
+        <v>29.94914568078552</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>51.94196848521092</v>
+        <v>29.94914572305514</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>57.46666224124512</v>
+        <v>29.94914573480915</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>56.10781701551993</v>
+        <v>29.94914573050315</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>65.73437670262535</v>
+        <v>29.94914575075164</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>70.03458794348373</v>
+        <v>29.94914575618996</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>37.31746334491325</v>
+        <v>29.94914569665243</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>62.51525610201757</v>
+        <v>29.94914574746074</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>69.66519762623739</v>
+        <v>29.94914576139504</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>49.09056601849791</v>
+        <v>29.94914569395316</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>45.62483403744525</v>
+        <v>29.94914569011356</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>54.97266383508101</v>
+        <v>29.94914571089425</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>59.05672636495871</v>
+        <v>29.9491457168067</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>27.92126271751503</v>
+        <v>29.94914565713937</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>52.30806705351038</v>
+        <v>29.949145708655</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>59.13186134872333</v>
+        <v>29.94914572281269</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.14022380088828</v>
+        <v>29.94914566118054</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>45.51070615050416</v>
+        <v>29.94914570294675</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>50.94024489704277</v>
+        <v>29.94914571444393</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>21.58122954642194</v>
+        <v>29.94914566936008</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>44.61366900503295</v>
+        <v>29.94914571665655</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>50.76836279956711</v>
+        <v>29.94914572967608</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>33.41208562925527</v>
+        <v>29.94914568604921</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>53.90933776776384</v>
+        <v>29.94914572820394</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>59.38522295920188</v>
+        <v>29.94914573980808</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>58.11303052175031</v>
+        <v>29.94914573539581</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>67.70836612760354</v>
+        <v>29.94914575549457</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>71.97759156961669</v>
+        <v>29.94914576087734</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>39.30115105739256</v>
+        <v>29.94914570151923</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>64.50670596507339</v>
+        <v>29.94914575221045</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>71.59461968915858</v>
+        <v>29.94914576594191</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>46.76456045591117</v>
+        <v>29.94914567195365</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>43.24181487567519</v>
+        <v>29.9491456681649</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>52.67874175035378</v>
+        <v>29.94914568888343</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>56.7730176151363</v>
+        <v>29.94914569494716</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>25.49154952988636</v>
+        <v>29.94914563609262</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>49.90276597174365</v>
+        <v>29.94914568680893</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>56.74738255512244</v>
+        <v>29.94914570143214</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>23.02943083968709</v>
+        <v>29.94914564209501</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>43.45263553655949</v>
+        <v>29.94914568316975</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>48.90641623599323</v>
+        <v>29.94914569502517</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>18.56477468325232</v>
+        <v>29.94914564903257</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>41.65624616479366</v>
+        <v>29.94914569554602</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>47.83855798420316</v>
+        <v>29.94914570897122</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>30.55111966316258</v>
+        <v>29.94914566504643</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>51.10073832039546</v>
+        <v>29.94914570650326</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>56.60110169240886</v>
+        <v>29.94914571846897</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>55.29950087147124</v>
+        <v>29.94914571414079</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>64.9887252127983</v>
+        <v>29.9491457341879</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>69.27555684026001</v>
+        <v>29.94914573971552</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>36.4407471660767</v>
+        <v>29.94914568106966</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>61.69392781710801</v>
+        <v>29.94914573101492</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>68.81248955174419</v>
+        <v>29.94914574521421</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1.018583657253856</v>
+        <v>29.94914546315088</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>12.48327197001949</v>
+        <v>29.94914549592739</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>16.81730924012835</v>
+        <v>29.94914550644529</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-5.731675660222251</v>
+        <v>29.94914546386862</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>9.526839999505061</v>
+        <v>29.94914550098507</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>14.44080324939282</v>
+        <v>29.94914551289565</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>1.094468656514096</v>
+        <v>29.9491454705427</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>14.6693934812971</v>
+        <v>29.94914550362411</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>19.04262900329062</v>
+        <v>29.94914551423986</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>15.5114965097296</v>
+        <v>29.94914551658832</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>21.46321542557608</v>
+        <v>29.94914553290333</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>24.80254686360305</v>
+        <v>29.94914553818737</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>1.709577987910411</v>
+        <v>29.94914549356872</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>17.6899819285864</v>
+        <v>29.94914553320011</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>23.5492523435846</v>
+        <v>29.94914554594266</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>1.455524746605469</v>
+        <v>29.94914553323495</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>18.01165347231584</v>
+        <v>29.949145571118</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>23.14914115446951</v>
+        <v>29.94914558275794</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-6.309295807503993</v>
+        <v>29.94914553427656</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>12.40860363270574</v>
+        <v>29.94914557717571</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>18.23028767611324</v>
+        <v>29.9491455903569</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>2.677552526945309</v>
+        <v>29.94914554618012</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>19.3327251998696</v>
+        <v>29.94914558441557</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>3.252972141662486</v>
+        <v>29.94914548240758</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>17.30017567776768</v>
+        <v>29.94914551668019</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>21.63885772193273</v>
+        <v>29.94914552710324</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-0.5165235338854473</v>
+        <v>29.94914548511466</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>15.35901293803812</v>
+        <v>29.94914552392531</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>20.27812628378986</v>
+        <v>29.94914553572848</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>6.557156938026214</v>
+        <v>29.94914549259568</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>20.68140561698726</v>
+        <v>29.94914552718711</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.05922316196184</v>
+        <v>29.94914553770712</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>21.72586425571408</v>
+        <v>29.94914554003787</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>27.85086433147706</v>
+        <v>29.94914555680035</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>31.22235756089889</v>
+        <v>29.94914556210098</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>7.344521645848065</v>
+        <v>29.94914551539627</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>24.0033802847641</v>
+        <v>29.94914555682213</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.87415846220863</v>
+        <v>29.94914556939181</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>6.950785762575777</v>
+        <v>29.94914555717228</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>24.12724274105252</v>
+        <v>29.94914559677386</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.28891865252012</v>
+        <v>29.94914560832326</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>0.251209119605484</v>
+        <v>29.9491455604516</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>19.67102205472597</v>
+        <v>29.94914560529683</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>25.51997771747236</v>
+        <v>29.9491456183755</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>9.573375876915861</v>
+        <v>29.94914557335571</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>26.85345381941041</v>
+        <v>29.94914561332568</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>4.371111906354734</v>
+        <v>29.94914548759239</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>18.44748453894298</v>
+        <v>29.94914552176171</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.74927834174697</v>
+        <v>29.94914553206874</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>0.9164989396583323</v>
+        <v>29.94914549085002</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>16.82523558735154</v>
+        <v>29.94914552954371</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>21.70248781720559</v>
+        <v>29.9491455412155</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>7.991290893498093</v>
+        <v>29.94914549835784</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>22.14518989157206</v>
+        <v>29.94914553284501</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>26.48575778166333</v>
+        <v>29.94914554324793</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>23.25356255323551</v>
+        <v>29.94914554550106</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.3700601765928</v>
+        <v>29.94914556214621</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>32.72166221189065</v>
+        <v>29.94914556740659</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>8.830874876055656</v>
+        <v>29.9491455207786</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>25.53608831348411</v>
+        <v>29.94914556210452</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>31.35727751350741</v>
+        <v>29.94914557451649</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>8.367413002819923</v>
+        <v>29.94914556232385</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>25.56374061314706</v>
+        <v>29.94914560180345</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>30.68746266597201</v>
+        <v>29.94914561323007</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>2.039801371035786</v>
+        <v>29.94914556618655</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>21.48227810442118</v>
+        <v>29.94914561089364</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>27.28818259221789</v>
+        <v>29.94914562383326</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>11.3675856167677</v>
+        <v>29.94914557908717</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.66792770173183</v>
+        <v>29.94914561893401</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>3.413928113895864</v>
+        <v>29.94914547187777</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>17.47629816461736</v>
+        <v>29.94914550542688</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.79093850345894</v>
+        <v>29.94914551601115</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-0.8047894668429905</v>
+        <v>29.94914547403738</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>15.08749813579308</v>
+        <v>29.94914551202873</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>19.97947522384982</v>
+        <v>29.94914552401447</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>6.420623199112192</v>
+        <v>29.94914548098922</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>20.5596455389508</v>
+        <v>29.94914551485042</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>24.91326687369018</v>
+        <v>29.94914552553315</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>21.54579982110473</v>
+        <v>29.9491455277339</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>27.70154628021752</v>
+        <v>29.94914554426985</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>31.05911700874275</v>
+        <v>29.94914554962284</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>7.1218462802175</v>
+        <v>29.94914550379668</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>23.77587851896317</v>
+        <v>29.94914554442485</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.62045658238468</v>
+        <v>29.94914555720309</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>6.899623600447903</v>
+        <v>29.94914554409973</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>24.11004269444784</v>
+        <v>29.94914558287268</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.24589454433161</v>
+        <v>29.94914559460002</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-0.3137817741921971</v>
+        <v>29.94914554670307</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>19.14407176258149</v>
+        <v>29.94914559060995</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>24.96384845332311</v>
+        <v>29.94914560389012</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>9.172922040611081</v>
+        <v>29.94914555896894</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.48672736874056</v>
+        <v>29.94914559810258</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>24.51325322698462</v>
+        <v>29.94914559616379</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>20.86366203017545</v>
+        <v>29.9491455955485</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.7952202254161</v>
+        <v>29.94914561474262</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>32.91863255162981</v>
+        <v>29.94914562050224</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>5.217968128811847</v>
+        <v>29.94914556729124</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.74971579107657</v>
+        <v>29.94914561366988</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>32.35262780341548</v>
+        <v>29.94914562767045</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>8.385762342819469</v>
+        <v>29.94914557997434</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>25.7593649308331</v>
+        <v>29.94914561750452</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>31.09238462799604</v>
+        <v>29.94914562887068</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>2.052016719982962</v>
+        <v>29.94914558275654</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>21.69416786111436</v>
+        <v>29.9491456252561</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>27.7396479238077</v>
+        <v>29.94914563812725</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>12.39269830731245</v>
+        <v>29.94914559611826</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.8718773836841</v>
+        <v>29.94914563399755</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>35.25066654315755</v>
+        <v>29.94914564546945</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>33.49722402271505</v>
+        <v>29.94914564425828</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>41.72837466687426</v>
+        <v>29.94914566287883</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>46.04592504203316</v>
+        <v>29.94914566815018</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>16.66645331514504</v>
+        <v>29.94914561484096</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.24158159277426</v>
+        <v>29.94914566066112</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>45.12231036336763</v>
+        <v>29.94914567430134</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>32.05824462608084</v>
+        <v>29.94914562498252</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.53630641617476</v>
+        <v>29.94914562400072</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>36.66078035734988</v>
+        <v>29.94914564365248</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>40.82952373848519</v>
+        <v>29.94914564942116</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>12.27673711684862</v>
+        <v>29.94914559394784</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>33.58573846029586</v>
+        <v>29.94914564238522</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>40.22003767833652</v>
+        <v>29.94914565621015</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>14.48122110540505</v>
+        <v>29.94914560468269</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>32.46983497586647</v>
+        <v>29.94914564391752</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>37.81860812404037</v>
+        <v>29.94914565515701</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>9.219720621499288</v>
+        <v>29.94914560971617</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.55774379250544</v>
+        <v>29.94914565414609</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>35.62099553987142</v>
+        <v>29.9491456668738</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>19.94069187446599</v>
+        <v>29.94914562408295</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>38.03938160676635</v>
+        <v>29.94914566368275</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>43.43398895100529</v>
+        <v>29.9491456750268</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>41.83251718973552</v>
+        <v>29.94914567341626</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>50.25278839215343</v>
+        <v>29.94914569248095</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>54.6113608929179</v>
+        <v>29.94914569773909</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>24.37785291483648</v>
+        <v>29.94914564224741</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>46.71989380666608</v>
+        <v>29.94914569009479</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>53.62780234708756</v>
+        <v>29.94914570351348</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>33.83441369514082</v>
+        <v>29.94914563046693</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>30.39847436136694</v>
+        <v>29.94914562934902</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>38.50119449884752</v>
+        <v>29.949145648851</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>42.64631045194209</v>
+        <v>29.94914565457335</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>14.10630745156553</v>
+        <v>29.94914559925469</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>35.44550140522148</v>
+        <v>29.94914564756382</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>42.02923653359242</v>
+        <v>29.94914566121959</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>15.99599085138964</v>
+        <v>29.94914560953913</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>33.99485271069796</v>
+        <v>29.94914564866902</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>39.300563734539</v>
+        <v>29.94914565977414</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>11.094300854625</v>
+        <v>29.94914561514248</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.44409765246415</v>
+        <v>29.94914565945356</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>37.45850551754393</v>
+        <v>29.9491456720291</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>21.82049403134704</v>
+        <v>29.94914562949429</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>39.92973669335215</v>
+        <v>29.94914566898818</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>45.28089511562247</v>
+        <v>29.9491456801966</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>43.75434393156547</v>
+        <v>29.94914567845185</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>52.14942707244487</v>
+        <v>29.94914569737675</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>56.48030084981069</v>
+        <v>29.94914570258535</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>26.2771883498649</v>
+        <v>29.94914564724742</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>48.63648081230654</v>
+        <v>29.94914569498724</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>55.48914040548867</v>
+        <v>29.94914570822274</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.66549861026201</v>
+        <v>29.94914560993901</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.17783024833705</v>
+        <v>29.94914560891912</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.35413687348652</v>
+        <v>29.94914562834715</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>40.51096644061915</v>
+        <v>29.9491456341779</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>11.84404945588031</v>
+        <v>29.94914557968903</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>33.18102682766246</v>
+        <v>29.94914562721105</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>39.78417510171054</v>
+        <v>29.94914564126055</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>14.04496283840466</v>
+        <v>29.94914559175001</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>32.07603475290978</v>
+        <v>29.94914563020538</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>37.40354546987707</v>
+        <v>29.94914564161951</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>8.279850242476385</v>
+        <v>29.94914559612457</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.66552745364191</v>
+        <v>29.94914563967182</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>34.70477552452636</v>
+        <v>29.94914565259729</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>19.15889399462418</v>
+        <v>29.94914560987407</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>37.29989041242857</v>
+        <v>29.94914564868717</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>42.67306462072428</v>
+        <v>29.94914566020748</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>41.12047517081434</v>
+        <v>29.94914565858267</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>49.59539628560269</v>
+        <v>29.94914567744559</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>53.94428090338253</v>
+        <v>29.94914568276487</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>23.59985996250345</v>
+        <v>29.94914562815995</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>45.98289091121124</v>
+        <v>29.94914567516282</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>52.86323405685312</v>
+        <v>29.94914568880286</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>7.585258236182632</v>
+        <v>29.94914551860099</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>23.10193787846951</v>
+        <v>29.94914555262828</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>27.94485586073395</v>
+        <v>29.94914556353891</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>3.974730258858084</v>
+        <v>29.94914552276133</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>21.51140444144067</v>
+        <v>29.94914556129418</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>27.00221282168051</v>
+        <v>29.9491455736495</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>11.84992818957464</v>
+        <v>29.94914553151004</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>27.45272806947563</v>
+        <v>29.94914556585387</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>32.33958099054158</v>
+        <v>29.949145576866</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.74750912359173</v>
+        <v>29.94914557650183</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>35.61711126759623</v>
+        <v>29.94914559334421</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>39.11183947819138</v>
+        <v>29.94914559883772</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>13.99671805323454</v>
+        <v>29.94914555191544</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>32.2659761453162</v>
+        <v>29.94914559278824</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>38.88711420494393</v>
+        <v>29.94914560605824</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>9.286239216146353</v>
+        <v>29.94914559025359</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>27.9372276542136</v>
+        <v>29.94914562932393</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>33.33377304871923</v>
+        <v>29.94914564120963</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>2.497032003677539</v>
+        <v>29.94914559431026</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>23.5841118050245</v>
+        <v>29.9491456385539</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.69929690571649</v>
+        <v>29.9491456520134</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>12.3793346537555</v>
+        <v>29.94914560816202</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>31.14342759562727</v>
+        <v>29.9491456475958</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>12.4850375915266</v>
+        <v>29.94914554018265</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.59046254988963</v>
+        <v>29.9491455757467</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>33.4329602004464</v>
+        <v>29.94914558652536</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>9.890278553217222</v>
+        <v>29.94914554642883</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>28.0931049039239</v>
+        <v>29.94914558670193</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>33.58330019430011</v>
+        <v>29.9491455989078</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>18.06195738792628</v>
+        <v>29.94914555611659</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>34.25779945110422</v>
+        <v>29.94914559201148</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>39.14411335063618</v>
+        <v>29.94914560289041</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>35.78567488155053</v>
+        <v>29.94914560252716</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>42.8430802605257</v>
+        <v>29.94914561982412</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>46.3633540434996</v>
+        <v>29.94914562530811</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>20.41486306159716</v>
+        <v>29.94914557624882</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>39.41171055364325</v>
+        <v>29.94914561895498</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>46.04095092059314</v>
+        <v>29.94914563200032</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>15.46765537713965</v>
+        <v>29.94914561661698</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>34.78435590215106</v>
+        <v>29.94914565744106</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>40.19605316145817</v>
+        <v>29.94914566918533</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>9.822939592917486</v>
+        <v>29.9491456229753</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>31.66332413966283</v>
+        <v>29.94914566920491</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>37.7955118933483</v>
+        <v>29.94914568250424</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>20.09400890227077</v>
+        <v>29.94914563796677</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>39.52873193474617</v>
+        <v>29.94914567917061</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>13.65517371469362</v>
+        <v>29.94914554502843</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.78224856348972</v>
+        <v>29.94914558048529</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.58193090137978</v>
+        <v>29.94914559113815</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>11.38608722366947</v>
+        <v>29.94914555181116</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.61363274727119</v>
+        <v>29.94914559196286</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>35.05524184610235</v>
+        <v>29.94914560402628</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>19.56095821526072</v>
+        <v>29.94914556152002</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>35.77889544752033</v>
+        <v>29.94914559730672</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>40.62197486011112</v>
+        <v>29.94914560805868</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>37.3777976185947</v>
+        <v>29.94914560765488</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>44.42213958367604</v>
+        <v>29.94914562483326</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>47.91858234033563</v>
+        <v>29.94914563027198</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>21.96377273602066</v>
+        <v>29.94914558129963</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>40.99862172640545</v>
+        <v>29.94914562390428</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>47.5702147503914</v>
+        <v>29.94914563677767</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>16.96170217622947</v>
+        <v>29.94914562145943</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>36.29055001863971</v>
+        <v>29.94914566215898</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>41.65922932592143</v>
+        <v>29.94914567377013</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>11.70293992011209</v>
+        <v>29.94914562838811</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>33.55727672723624</v>
+        <v>29.94914567447669</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>39.64066651019839</v>
+        <v>29.94914568762527</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>21.98502947841671</v>
+        <v>29.94914564337499</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>41.43225436847189</v>
+        <v>29.94914568445314</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>12.60631229159781</v>
+        <v>29.94914552827758</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.73800425282769</v>
+        <v>29.94914556311005</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>33.55581971320412</v>
+        <v>29.94914557407962</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>9.532854570370013</v>
+        <v>29.94914553396519</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>27.76495159386251</v>
+        <v>29.94914557340983</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>33.22729410350947</v>
+        <v>29.94914558583189</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>17.86330372640577</v>
+        <v>29.9491455430376</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>34.08506251968276</v>
+        <v>29.94914557819409</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>38.94653793382457</v>
+        <v>29.94914558926571</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>35.55813517644862</v>
+        <v>29.94914558874818</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>42.6521986388228</v>
+        <v>29.94914560582583</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>46.15599572280929</v>
+        <v>29.94914561139218</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>20.14641823670268</v>
+        <v>29.9491455631995</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>39.15036976529709</v>
+        <v>29.94914560510833</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>45.7526103008636</v>
+        <v>29.94914561840191</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>15.35219958836692</v>
+        <v>29.94914560219776</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>34.71438679125735</v>
+        <v>29.94914564219342</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>40.09493577852584</v>
+        <v>29.9491456541539</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>9.160085688284809</v>
+        <v>29.9491456078933</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>31.05151670179576</v>
+        <v>29.9491456531848</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>37.1484989253162</v>
+        <v>29.94914566672896</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>19.60009184590011</v>
+        <v>29.9491456221589</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>39.08011933310276</v>
+        <v>29.94914566252662</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>36.58526694851536</v>
+        <v>29.94914565959207</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>33.11040728225798</v>
+        <v>29.94914565622559</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>42.05946917892638</v>
+        <v>29.94914567600063</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>46.19599168302881</v>
+        <v>29.94914568188333</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>16.61034813198014</v>
+        <v>29.94914562642803</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>39.62919271498104</v>
+        <v>29.94914567402971</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>46.6438302429398</v>
+        <v>29.94914568833258</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>15.46535572563326</v>
+        <v>29.94914563249791</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>34.74041451354842</v>
+        <v>29.94914567106396</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>40.33989400743214</v>
+        <v>29.94914568264056</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>10.45868347225828</v>
+        <v>29.94914563791106</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>32.25106611937007</v>
+        <v>29.94914568158364</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>38.59829326879085</v>
+        <v>29.9491456946931</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>21.61347018978844</v>
+        <v>29.94914565294653</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>41.00666421412373</v>
+        <v>29.94914569187134</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>46.65404194283624</v>
+        <v>29.94914570355563</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>45.32714221715264</v>
+        <v>29.94914569963823</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>54.53844391402181</v>
+        <v>29.94914571875502</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>58.86190574015343</v>
+        <v>29.94914572413015</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>27.70583266427493</v>
+        <v>29.94914566889447</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>51.56579430449911</v>
+        <v>29.9491457157181</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>58.86002711291999</v>
+        <v>29.94914572964901</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>44.98570125871999</v>
+        <v>29.94914569102413</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>41.67366699663677</v>
+        <v>29.94914568729908</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>50.83057769108385</v>
+        <v>29.94914570753073</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>55.00314775851865</v>
+        <v>29.9491457133873</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>24.52374857344553</v>
+        <v>29.94914565565215</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>48.372487839152</v>
+        <v>29.94914570534245</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>55.4101522672311</v>
+        <v>29.94914571940236</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>22.20491921732009</v>
+        <v>29.94914565939792</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>42.13821244707627</v>
+        <v>29.94914569969741</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>47.74439350156015</v>
+        <v>29.94914571110008</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>18.34607808936374</v>
+        <v>29.94914566710929</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>40.88327695622201</v>
+        <v>29.94914571274484</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>47.2379887420968</v>
+        <v>29.94914572565735</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.93290887472796</v>
+        <v>29.94914568326798</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>49.9891609679401</v>
+        <v>29.94914572394234</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>55.6432081793144</v>
+        <v>29.94914573545109</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>54.50580006335993</v>
+        <v>29.94914573113155</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>63.92284947123689</v>
+        <v>29.94914575068832</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>68.27839011975516</v>
+        <v>29.94914575602151</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>36.22665117090505</v>
+        <v>29.94914569859983</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>60.90480491655504</v>
+        <v>29.94914574747074</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>68.21780664024683</v>
+        <v>29.94914576111805</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>46.84580510076574</v>
+        <v>29.9491456961723</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>43.6314401536314</v>
+        <v>29.94914569234458</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>52.76112234033714</v>
+        <v>29.94914571242296</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>56.9065727747196</v>
+        <v>29.9491457182281</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>26.44762012714162</v>
+        <v>29.94914566066423</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>50.31727496991054</v>
+        <v>29.94914571022521</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>57.29769899117207</v>
+        <v>29.94914572410132</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>23.79485588163177</v>
+        <v>29.94914566395978</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>43.73172472314229</v>
+        <v>29.94914570415144</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>49.28988226455723</v>
+        <v>29.94914571540977</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>20.30621289497574</v>
+        <v>29.94914567222918</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>42.8476629500549</v>
+        <v>29.94914571774263</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>49.14790205766104</v>
+        <v>29.94914573049168</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>31.90398942129961</v>
+        <v>29.94914568837107</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>51.96409099929303</v>
+        <v>29.94914572893662</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>57.56968129553886</v>
+        <v>29.94914574029968</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>56.5172417538077</v>
+        <v>29.9491457358785</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>65.9044343189934</v>
+        <v>29.94914575529081</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>70.22907324143938</v>
+        <v>29.94914576056999</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>38.21434025280216</v>
+        <v>29.94914570331951</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>62.90185911179024</v>
+        <v>29.9491457520806</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>70.15314419005369</v>
+        <v>29.94914576553034</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>44.50569846415952</v>
+        <v>29.94914567459836</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>41.23946313454</v>
+        <v>29.94914567080705</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>50.45498209489435</v>
+        <v>29.94914569082661</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>54.60990178029852</v>
+        <v>29.94914569678289</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>24.0150548605796</v>
+        <v>29.94914564000473</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>47.90499129952819</v>
+        <v>29.94914568879216</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>54.90454253756528</v>
+        <v>29.94914570312442</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>21.68319188400583</v>
+        <v>29.94914564524263</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>41.66886527333128</v>
+        <v>29.94914568476466</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>47.24981313290995</v>
+        <v>29.94914569637316</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>17.29418212509536</v>
+        <v>29.94914565231521</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>39.89022674468525</v>
+        <v>29.94914569707036</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>46.21644121935848</v>
+        <v>29.94914571021594</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.04106846744673</v>
+        <v>29.94914566777929</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>49.14958923494467</v>
+        <v>29.94914570766898</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>54.77819524296464</v>
+        <v>29.94914571938546</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>53.7018439792625</v>
+        <v>29.94914571503626</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>63.17954112593828</v>
+        <v>29.9491457344001</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>67.52064475973911</v>
+        <v>29.94914573982309</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>35.35848622308132</v>
+        <v>29.94914568325947</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>60.08932327015052</v>
+        <v>29.94914573129928</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>67.36944875841267</v>
+        <v>29.94914574520678</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.177</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.242</v>
+        <v>17.801</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.001</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.329</v>
+        <v>21.229</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.508</v>
+        <v>13.863</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.94914550968327</v>
+        <v>-0.207958174737751</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.94914554464513</v>
+        <v>20.47547489716537</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.94914555591832</v>
+        <v>26.08435007883657</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.9491455135704</v>
+        <v>-1.558479767421264</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.94914555316157</v>
+        <v>15.75774435339664</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.94914556592745</v>
+        <v>20.33462812671612</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.94914552243393</v>
+        <v>8.540919783843911</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.94914555772102</v>
+        <v>24.48740353237012</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.94914556909908</v>
+        <v>29.86104476110393</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.94914556905032</v>
+        <v>25.532086432606</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.94914558638934</v>
+        <v>32.03541107250803</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.94914559206912</v>
+        <v>34.69481555244414</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.94914554385814</v>
+        <v>7.868018097307019</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.94914558589493</v>
+        <v>24.07037156987654</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.9491455995899</v>
+        <v>32.42951906445884</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.9491455834598</v>
+        <v>-0.3168292798410768</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.94914562364198</v>
+        <v>24.14253688857638</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.94914563595385</v>
+        <v>31.03726705991845</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.94914558726952</v>
+        <v>-6.763425560179417</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.94914563277222</v>
+        <v>13.30347422212372</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.94914564671432</v>
+        <v>19.31284934817204</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.94914560142997</v>
+        <v>4.595375590413298</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.94914564198593</v>
+        <v>24.11443411774457</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.94914553177304</v>
+        <v>7.300082340930846</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.94914556831786</v>
+        <v>31.02775350629835</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.94914557946158</v>
+        <v>35.93787275415818</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.94914553781222</v>
+        <v>9.663264134858043</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.94914557919595</v>
+        <v>30.24221869123458</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.94914559181521</v>
+        <v>34.09379910384317</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.94914554763606</v>
+        <v>21.25511932810884</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.94914558452083</v>
+        <v>39.99875869365758</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.94914559576821</v>
+        <v>44.66724573788065</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.94914559572154</v>
+        <v>43.30780903487162</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.94914561352924</v>
+        <v>50.13242282727144</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.94914561920292</v>
+        <v>52.76273037686492</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.94914556878651</v>
+        <v>22.59965684986969</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.94914561271334</v>
+        <v>42.37092254347144</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.94914562618479</v>
+        <v>49.90049418610606</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.94914561049413</v>
+        <v>10.13059500993259</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.94914565248594</v>
+        <v>38.03426346365438</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.94914566466057</v>
+        <v>44.32378707659298</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.94914561668305</v>
+        <v>8.136189450497145</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.949145664235</v>
+        <v>31.86809115713188</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.94914567802168</v>
+        <v>37.24366610937737</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.9491456320115</v>
+        <v>21.39346969531896</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.94914567439394</v>
+        <v>44.08177072199408</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.94914553682231</v>
+        <v>5.858741943461951</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.94914557325685</v>
+        <v>30.17332019195552</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.94914558427229</v>
+        <v>35.16807841229911</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.94914554341868</v>
+        <v>9.478731622651621</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.94914558467753</v>
+        <v>30.72161462494519</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.94914559715152</v>
+        <v>34.69036184375528</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.94914555326507</v>
+        <v>21.09181109622875</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.94914559003854</v>
+        <v>40.41384472595663</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.94914560115645</v>
+        <v>45.15434953006653</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.94914560106318</v>
+        <v>44.1648053767433</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.94914561874855</v>
+        <v>51.0225708320643</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.94914562437611</v>
+        <v>53.86730843842423</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.94914557404828</v>
+        <v>22.79226856668324</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.94914561787049</v>
+        <v>43.39678556536204</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.94914563116654</v>
+        <v>50.99835908498311</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.94914561554033</v>
+        <v>9.239423943123917</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.94914565740397</v>
+        <v>37.80288789388187</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.94914566944302</v>
+        <v>44.23419256388522</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.94914562232216</v>
+        <v>8.611912804905117</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.94914566972897</v>
+        <v>33.0918824516552</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.94914568336211</v>
+        <v>38.63831462502277</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.9491456376461</v>
+        <v>21.95960455383198</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.94914567989917</v>
+        <v>45.2944838367533</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.94914551958891</v>
+        <v>2.050855378528006</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.94914555537718</v>
+        <v>24.90771068437701</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.94914556671543</v>
+        <v>30.90376557781057</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.94914552504706</v>
+        <v>4.587467879417876</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.94914556557406</v>
+        <v>24.24606470505199</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.94914557841362</v>
+        <v>29.29483829007979</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.9491455342415</v>
+        <v>14.94785579309215</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.94914557036269</v>
+        <v>32.95125958920864</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.94914558180642</v>
+        <v>38.66305517957963</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.94914558159839</v>
+        <v>34.73235755939329</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.94914559917904</v>
+        <v>41.55755207035988</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.94914560493543</v>
+        <v>44.86874854701091</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.94914555541873</v>
+        <v>15.01340648189086</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.94914559851977</v>
+        <v>33.98849873765149</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.94914561224412</v>
+        <v>42.78459281973424</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.94914559570095</v>
+        <v>4.270231574787832</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.94914563683369</v>
+        <v>31.22200160569248</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.94914564922862</v>
+        <v>38.67706022078512</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.94914560119953</v>
+        <v>2.045340729145668</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.94914564777866</v>
+        <v>24.79576389312136</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.94914566181481</v>
+        <v>31.43946264782091</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.94914561578366</v>
+        <v>13.85387033015496</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.94914565729903</v>
+        <v>35.72951726594128</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.94914565441234</v>
+        <v>30.50981360543692</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.94914565123811</v>
+        <v>26.36840301122121</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.94914567160748</v>
+        <v>35.43325248730899</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.94914567769966</v>
+        <v>40.14260138172936</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.94914562066394</v>
+        <v>5.825434544259348</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.94914566966089</v>
+        <v>30.31473239424311</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.9491456844622</v>
+        <v>38.44424709166878</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.94914562753341</v>
+        <v>1.203372431925199</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.94914566721932</v>
+        <v>27.43278681968233</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.94914567920687</v>
+        <v>35.52925083197816</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.94914563278219</v>
+        <v>-4.21215440659558</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.94914567772292</v>
+        <v>18.01785518901314</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.94914569129774</v>
+        <v>24.76757469816823</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.94914564817659</v>
+        <v>10.20986580121284</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.94914568823167</v>
+        <v>31.31194098082088</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.94914570033073</v>
+        <v>39.02805967069854</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.94914569656163</v>
+        <v>39.19081439559324</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.9491457162581</v>
+        <v>48.44484286771021</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.94914572182202</v>
+        <v>54.79760217008285</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.94914566498529</v>
+        <v>13.10382441897792</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.94914571320737</v>
+        <v>40.49061535361582</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.94914572761573</v>
+        <v>49.96556205616002</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.94914568668182</v>
+        <v>49.86913482333189</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.94914568313703</v>
+        <v>48.42726244363699</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.94914570397863</v>
+        <v>57.71224390864928</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.94914571004837</v>
+        <v>62.36932264068203</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.94914565065337</v>
+        <v>24.77308985006188</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.94914570180781</v>
+        <v>53.38318489463693</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.94914571636891</v>
+        <v>60.67582570706966</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.94914565513958</v>
+        <v>14.96645849896398</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.94914569661531</v>
+        <v>44.66184752386521</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.94914570843137</v>
+        <v>52.04359662514344</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.94914566276476</v>
+        <v>14.38955034389581</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.9491457097323</v>
+        <v>40.31450183895005</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.94914572311293</v>
+        <v>46.33145283338843</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.94914567931113</v>
+        <v>30.9012210323295</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.94914572117268</v>
+        <v>55.19169043540005</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.94914573309866</v>
+        <v>62.19702134338385</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.94914572891257</v>
+        <v>65.42086633523775</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.94914574906461</v>
+        <v>74.82034523107639</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.94914575458926</v>
+        <v>81.11120219359859</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.94914569548903</v>
+        <v>36.19661084636206</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.94914574582723</v>
+        <v>67.63894013803592</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.94914575995266</v>
+        <v>76.26695338585823</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.94914569205022</v>
+        <v>51.21240433438598</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.94914568839504</v>
+        <v>49.86836800669054</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.94914570907872</v>
+        <v>59.1617508727367</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.94914571509607</v>
+        <v>64.04998393695247</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.94914565587556</v>
+        <v>25.65893048195552</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.94914570689686</v>
+        <v>55.17640668810201</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.94914572127064</v>
+        <v>62.59636374225973</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.9491456598946</v>
+        <v>15.43909124528207</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.9491457012595</v>
+        <v>45.81258389214302</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.94914571292834</v>
+        <v>53.29529785968367</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.94914566809971</v>
+        <v>16.33700086781927</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.94914571494174</v>
+        <v>43.02908508223079</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.94914572815566</v>
+        <v>49.18307149215887</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.94914568462903</v>
+        <v>32.98539337630501</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.94914572637872</v>
+        <v>57.94253051742599</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.94914573815612</v>
+        <v>65.03767546162638</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.94914573386056</v>
+        <v>68.45328612040348</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.94914575386392</v>
+        <v>77.84421571448941</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.94914575933353</v>
+        <v>84.35235118573138</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.94914570040742</v>
+        <v>38.63039125277951</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.94914575063279</v>
+        <v>70.96940841466453</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.94914576455668</v>
+        <v>79.7103560354733</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.94914566980927</v>
+        <v>42.63679129739175</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.94914566619613</v>
+        <v>38.00444477428531</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.94914568681714</v>
+        <v>47.39323983509462</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.94914569298713</v>
+        <v>52.82573124025304</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.94914563458847</v>
+        <v>15.66447179422104</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.94914568480473</v>
+        <v>43.32088006780286</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.94914569964338</v>
+        <v>52.04647661450794</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.94914564061455</v>
+        <v>10.07190007473778</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.94914568128365</v>
+        <v>38.89727614312204</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.94914569330993</v>
+        <v>47.46382470998844</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.94914564757414</v>
+        <v>9.21767191716107</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.94914569362824</v>
+        <v>34.24946770377827</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.94914570724693</v>
+        <v>41.55359280220178</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.94914566340809</v>
+        <v>24.2963669262394</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.94914570445551</v>
+        <v>47.85793112218099</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.94914571659367</v>
+        <v>55.99827963097598</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.94914571237698</v>
+        <v>56.00512267657145</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.94914573232833</v>
+        <v>65.56299022897008</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.94914573794363</v>
+        <v>72.63426107302666</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.94914567973697</v>
+        <v>27.81323164329439</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.94914572921109</v>
+        <v>58.40896079639909</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.94914574360225</v>
+        <v>68.45866311486147</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.94914547043105</v>
+        <v>-2.845065609826456</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.9491455053628</v>
+        <v>17.08019166658009</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.94914551641227</v>
+        <v>21.89585055269027</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.94914547221897</v>
+        <v>-4.112092534760592</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.94914551177603</v>
+        <v>12.52795942456209</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.94914552428856</v>
+        <v>16.24779325672763</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.94914547977337</v>
+        <v>5.607794397308428</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.94914551503007</v>
+        <v>20.91269708295092</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.94914552618232</v>
+        <v>25.5060880393349</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.94914552770949</v>
+        <v>20.00184670186857</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.94914554499651</v>
+        <v>26.49535774145829</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.94914555051528</v>
+        <v>28.7063700067545</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.94914550277426</v>
+        <v>1.576520757366911</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.94914554494891</v>
+        <v>16.95273893178723</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.9491455583481</v>
+        <v>24.23209178871168</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.94914554446525</v>
+        <v>-4.123119041765044</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.94914558480093</v>
+        <v>19.65304357656174</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.94914559695959</v>
+        <v>25.99561239109995</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.94914554644176</v>
+        <v>-10.32323789907351</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.94914559211829</v>
+        <v>9.157522253673424</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.94914560588688</v>
+        <v>14.54386213978447</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.94914555954913</v>
+        <v>1.353001116894518</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.94914560026004</v>
+        <v>20.28655648473386</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.94914549088538</v>
+        <v>3.188980998384533</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.94914552739037</v>
+        <v>26.05828483672493</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.94914553833435</v>
+        <v>30.23633413252807</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.9491454947819</v>
+        <v>5.497055546081537</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.94914553612053</v>
+        <v>25.30437520449619</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.9491455485136</v>
+        <v>28.3525727154019</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.94914550318166</v>
+        <v>16.5944481481292</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.94914554002624</v>
+        <v>34.59884164712678</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.94914555107202</v>
+        <v>38.55000803518811</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.94914555258377</v>
+        <v>35.92093552314005</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.9491455703389</v>
+        <v>42.73941670776379</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.9491455758703</v>
+        <v>44.96001005646659</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.9491455259316</v>
+        <v>14.51278408619657</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.94914556999129</v>
+        <v>33.39147073786008</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.94914558320039</v>
+        <v>39.88460129092698</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.94914556977323</v>
+        <v>4.444863439522791</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.94914561191362</v>
+        <v>31.55598167879112</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.94914562396845</v>
+        <v>37.38304103924452</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.94914557411475</v>
+        <v>2.565094597966137</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.94914562183495</v>
+        <v>25.60677972572344</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.94914563548597</v>
+        <v>30.4413419821181</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.94914558826408</v>
+        <v>16.00095712078853</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.94914563079648</v>
+        <v>37.99559157048579</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.94914549617468</v>
+        <v>1.460775836579938</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.94914553256795</v>
+        <v>24.90148477442531</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.9491455433874</v>
+        <v>29.16589023063217</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.94914550064346</v>
+        <v>4.981200665099536</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.94914554185556</v>
+        <v>25.43885431495203</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.94914555410761</v>
+        <v>28.6012288752968</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.9491455090619</v>
+        <v>16.07623271254994</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.94914554579371</v>
+        <v>34.64341773989349</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.9491455567138</v>
+        <v>38.66966138625052</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.94914555815782</v>
+        <v>36.41109589345236</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.9491455757885</v>
+        <v>43.25524003498586</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.9491455812766</v>
+        <v>45.69397941189317</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.94914553142385</v>
+        <v>14.36357773050452</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.94914557537544</v>
+        <v>34.06523391233686</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.94914558841535</v>
+        <v>40.62660037907855</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.94914557501491</v>
+        <v>3.189932849529978</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.94914561702382</v>
+        <v>30.93973678465641</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.94914562894679</v>
+        <v>36.91222643468858</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.94914557996492</v>
+        <v>2.630520516010915</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.94914562753624</v>
+        <v>26.40166471227637</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.94914564103793</v>
+        <v>31.40590177678612</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.94914559409886</v>
+        <v>16.11870348101571</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.94914563649855</v>
+        <v>38.73882298608459</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.94914547969594</v>
+        <v>-1.662934464383358</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.94914551544665</v>
+        <v>20.36239987666706</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.94914552655879</v>
+        <v>25.559048526391</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.94914548301707</v>
+        <v>0.8313867769831376</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.94914552350154</v>
+        <v>19.74384722769474</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.94914553608504</v>
+        <v>23.91787029062843</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.94914549085654</v>
+        <v>10.72233992777281</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.94914552693982</v>
+        <v>28.0138056830856</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.94914553815533</v>
+        <v>32.94298803796161</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.94914553953229</v>
+        <v>27.85138375713917</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.94914555705299</v>
+        <v>34.63870618864496</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.94914556264088</v>
+        <v>37.5035215890175</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.94914551361672</v>
+        <v>7.442801217633164</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.94914555684666</v>
+        <v>25.52833566204765</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.94914557027476</v>
+        <v>33.21118363248411</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.94914555595919</v>
+        <v>-0.9539209445939143</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.94914559723801</v>
+        <v>25.22424162242731</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.94914560947876</v>
+        <v>32.12185540698513</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.94914555959537</v>
+        <v>-3.070875988894148</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.94914560633992</v>
+        <v>19.00969799027018</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.94914562020147</v>
+        <v>25.01141175370215</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.9491455730724</v>
+        <v>8.933931918228819</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.94914561473521</v>
+        <v>30.13642178394849</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.9491456125318</v>
+        <v>26.13537117688567</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.9491456110107</v>
+        <v>20.754317306803</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.94914563134721</v>
+        <v>29.90191599302606</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.94914563733467</v>
+        <v>34.28722038881043</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.94914558059219</v>
+        <v>-0.2820396496656734</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.94914562991502</v>
+        <v>23.20387642006389</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.94914564455194</v>
+        <v>30.70953628642545</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.9491455921408</v>
+        <v>-1.246098826122481</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.94914563206482</v>
+        <v>24.47250195327079</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.94914564392426</v>
+        <v>32.11054658987407</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.94914559583625</v>
+        <v>-6.792621094017061</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.94914564104662</v>
+        <v>15.03934671371379</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.94914565447637</v>
+        <v>21.26535554225931</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.9491456104142</v>
+        <v>8.043285002239571</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.94914565070961</v>
+        <v>28.73937451740498</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.94914566267937</v>
+        <v>35.99346963151689</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.94914566058137</v>
+        <v>34.5600131644238</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.94914568029502</v>
+        <v>43.92994852709805</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.9491456857769</v>
+        <v>50.10853966875776</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.94914562901229</v>
+        <v>8.037227782139055</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.94914567770057</v>
+        <v>34.62098120420521</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.94914569195056</v>
+        <v>43.55443045021826</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.94914564296345</v>
+        <v>43.32789127740325</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.94914564106034</v>
+        <v>40.5972143035314</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.94914566187369</v>
+        <v>49.97285490659557</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.94914566786483</v>
+        <v>54.35610423309942</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.94914560874904</v>
+        <v>16.5167998430997</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.94914566023076</v>
+        <v>44.05412297713528</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.9491456746715</v>
+        <v>50.80137855078199</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.94914561819259</v>
+        <v>10.74409853158265</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.9491456599056</v>
+        <v>39.81945120435856</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.94914567162343</v>
+        <v>46.82355512799001</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.94914562426468</v>
+        <v>9.917770434254541</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.94914567150093</v>
+        <v>35.34194754594822</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.94914568477031</v>
+        <v>40.9068267273159</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.94914563988577</v>
+        <v>26.70999784805585</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.94914568198682</v>
+        <v>50.48651583015179</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.94914569381365</v>
+        <v>57.11186369904706</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.94914569129797</v>
+        <v>58.69226312680192</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.94914571147494</v>
+        <v>68.21727551773283</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.94914571693774</v>
+        <v>74.37983824916377</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.94914565788664</v>
+        <v>29.10601758343456</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.94914570869969</v>
+        <v>59.67032479955158</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.94914572270586</v>
+        <v>67.82549551106264</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.94914564853243</v>
+        <v>44.20675352792578</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.9491456464988</v>
+        <v>41.59372008464568</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.94914566715314</v>
+        <v>50.96859429706488</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.94914567309445</v>
+        <v>55.58571437064846</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.94914561414785</v>
+        <v>16.97276561624214</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.94914566549123</v>
+        <v>45.4039074071403</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.94914567975044</v>
+        <v>52.27774152881379</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.94914562312547</v>
+        <v>10.82652400911859</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.94914566472497</v>
+        <v>40.56126800425785</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.94914567629888</v>
+        <v>47.66916544923954</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.949145629792</v>
+        <v>11.43722062468479</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.9491456768997</v>
+        <v>37.61203752533949</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.94914569000611</v>
+        <v>43.31219353352878</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.94914564538552</v>
+        <v>28.32701166803537</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.949145687372</v>
+        <v>52.75136159986816</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.94914569905358</v>
+        <v>59.47071694469547</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.9491456964082</v>
+        <v>61.26499887983756</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.94914571643679</v>
+        <v>70.7715571218655</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.94914572184645</v>
+        <v>77.15272151433882</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.9491456629639</v>
+        <v>31.09552335324561</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.94914571366029</v>
+        <v>62.545235716275</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.94914572747038</v>
+        <v>70.81106096250637</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.94914562708983</v>
+        <v>36.49613216234916</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.94914562514752</v>
+        <v>30.6923171272872</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.94914564573105</v>
+        <v>40.13506149897479</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.94914565178878</v>
+        <v>45.24155804127086</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.94914559369361</v>
+        <v>7.912137988220938</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.94914564422653</v>
+        <v>34.4862998332605</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.94914565890272</v>
+        <v>42.55988987042407</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.94914560454414</v>
+        <v>6.167258344839418</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.94914564544715</v>
+        <v>34.40616120432752</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.94914565734676</v>
+        <v>42.51037275362297</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29.94914560992788</v>
+        <v>5.074773796372813</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.94914565624685</v>
+        <v>29.63899204770119</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.9491456697221</v>
+        <v>36.40317314526454</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.94914562489981</v>
+        <v>20.44409645599909</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.94914566618331</v>
+        <v>43.52643079627241</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.94914567819362</v>
+        <v>51.20501825742514</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.94914567566395</v>
+        <v>49.68559581592025</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.94914569563283</v>
+        <v>59.32646337244724</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.94914570116065</v>
+        <v>66.21998129535937</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.94914564302872</v>
+        <v>21.10917483278224</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.94914569296656</v>
+        <v>50.84011477609438</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.949145707204</v>
+        <v>60.3193847124538</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.94914551051916</v>
+        <v>1.951567284310091</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.94914554585583</v>
+        <v>23.40323056499124</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.94914555698956</v>
+        <v>28.62071392190858</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.94914551439258</v>
+        <v>0.8098037519606081</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.94914555440819</v>
+        <v>18.9554144495512</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.94914556701614</v>
+        <v>23.13070305721629</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.94914552335603</v>
+        <v>11.34217617257763</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.94914555902142</v>
+        <v>28.06623190244285</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.94914557025872</v>
+        <v>33.05051295245211</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.94914556995483</v>
+        <v>28.29525147197428</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.94914558737953</v>
+        <v>35.12502881070817</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.94914559296793</v>
+        <v>37.50736057817647</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.94914554432765</v>
+        <v>9.791052896699096</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.94914558679406</v>
+        <v>26.72302412116044</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.94914560032039</v>
+        <v>34.66071059171568</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.949145585227</v>
+        <v>3.276546590813307</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.94914562584324</v>
+        <v>28.47386459288663</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.94914563797448</v>
+        <v>34.74133439996261</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.94914558902152</v>
+        <v>-2.985656343159352</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.94914563501575</v>
+        <v>17.88236072581669</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.9491456487533</v>
+        <v>23.24469282336494</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.94914560336142</v>
+        <v>9.102387564251096</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.94914564435547</v>
+        <v>29.36316531182217</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.94914553247711</v>
+        <v>9.555565313523678</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.94914556940239</v>
+        <v>34.03283872227829</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.9491455803994</v>
+        <v>38.53806628607741</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.94914553849563</v>
+        <v>12.08342729344264</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.9491455803102</v>
+        <v>33.4754425786483</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.94914559276333</v>
+        <v>36.90927774589592</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.94914554839819</v>
+        <v>24.1102022687253</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.94914558566697</v>
+        <v>43.61396066471889</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.94914559676628</v>
+        <v>47.88028750126468</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.94914559645133</v>
+        <v>46.07166550041261</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.94914561434486</v>
+        <v>53.22588346782463</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.94914561992409</v>
+        <v>55.56087629293862</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.94914556907685</v>
+        <v>24.53243814678357</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.94914561343801</v>
+        <v>45.02007558396238</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.94914562673342</v>
+        <v>52.11115895604662</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.9491456120726</v>
+        <v>13.64979698718047</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.94914565450232</v>
+        <v>42.26113991516164</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.94914566648738</v>
+        <v>47.90425761439289</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.94914561823975</v>
+        <v>11.78348466273396</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.9491456662876</v>
+        <v>36.28788067305813</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.9491456798596</v>
+        <v>40.99445400016202</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.94914563372143</v>
+        <v>25.76219635583128</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.94914567654585</v>
+        <v>49.16316347016759</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.94914553750494</v>
+        <v>8.209621536406129</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.94914557431744</v>
+        <v>33.26792635780716</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.94914558518521</v>
+        <v>37.84842108721055</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.94914554408299</v>
+        <v>11.99167601855432</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.94914558576984</v>
+        <v>34.04297276083925</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.94914559807662</v>
+        <v>37.5825754148638</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.94914555400232</v>
+        <v>24.03851482648005</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.94914559115727</v>
+        <v>44.11474366199481</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.94914560212614</v>
+        <v>48.44451346165053</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.94914560176824</v>
+        <v>47.01412587392409</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.94914561953828</v>
+        <v>54.19997078992076</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.94914562507121</v>
+        <v>56.74200722622804</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.94914557431672</v>
+        <v>24.81599967474089</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.94914561856972</v>
+        <v>46.13227932613034</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.94914563168891</v>
+        <v>53.28387521481591</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.94914561707188</v>
+        <v>12.81398422916729</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.94914565937025</v>
+        <v>42.07877808568854</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.94914567121844</v>
+        <v>47.85299282775242</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.94914562383373</v>
+        <v>12.3103104210026</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.94914567173284</v>
+        <v>37.55781008389951</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.94914568514984</v>
+        <v>42.42241722445848</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.94914563930291</v>
+        <v>26.37233745563193</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.94914568199476</v>
+        <v>50.41354261019397</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.94914552043092</v>
+        <v>4.462391947843809</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.94914555659908</v>
+        <v>28.08327846066672</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.94914556779076</v>
+        <v>33.6597949631971</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.9491455258784</v>
+        <v>7.189476252411239</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.94914556683559</v>
+        <v>27.67796016932842</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.94914557950916</v>
+        <v>32.29192267566845</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.9491455351634</v>
+        <v>17.98674683613072</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.949145571668</v>
+        <v>36.76394606490729</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.94914558296379</v>
+        <v>42.06038891679933</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.94914558250255</v>
+        <v>37.72023025037354</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.94914560016799</v>
+        <v>44.87220400163388</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.94914560582849</v>
+        <v>47.8847403169925</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.94914555588004</v>
+        <v>17.16157703671818</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.94914559941446</v>
+        <v>36.86183708197873</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.94914561296235</v>
+        <v>45.20252084519258</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.9491455974396</v>
+        <v>8.004507129500777</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.94914563901139</v>
+        <v>35.68695649548854</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.94914565121641</v>
+        <v>42.47726060617389</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.94914560292556</v>
+        <v>5.939159257644725</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.94914565000187</v>
+        <v>29.4889170922893</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.94914566382296</v>
+        <v>35.44196017708352</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.94914561767659</v>
+        <v>18.46902849135273</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.94914565963509</v>
+        <v>41.07963878355704</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.94914565659957</v>
+        <v>35.1341188411501</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.94914565324549</v>
+        <v>30.82928508693418</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.94914567371303</v>
+        <v>40.19659901082215</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.94914567970423</v>
+        <v>44.5215685701867</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.94914562221353</v>
+        <v>9.670167773565833</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.9491456717075</v>
+        <v>34.78477171168767</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.94914568630344</v>
+        <v>42.31690907451789</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.94914562906054</v>
+        <v>4.33385999574751</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.94914566914788</v>
+        <v>31.24448644642293</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.94914568097315</v>
+        <v>38.72800005437673</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.94914563428427</v>
+        <v>-1.081952779622352</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.94914567967958</v>
+        <v>21.88230248791337</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.94914569307065</v>
+        <v>27.99293767376179</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.94914564987054</v>
+        <v>14.0285069242834</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.94914569033079</v>
+        <v>35.82568827985049</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.94914570226607</v>
+        <v>42.92870137804667</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.94914569837976</v>
+        <v>42.8935764420209</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.94914571817223</v>
+        <v>52.46256852486123</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.94914572365323</v>
+        <v>58.41028316259893</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.9491456663768</v>
+        <v>16.23990765576337</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.94914571506744</v>
+        <v>44.22883941326325</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.94914572929315</v>
+        <v>53.09065152877642</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.9491456886424</v>
+        <v>54.30789116143411</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.94914568490978</v>
+        <v>52.71031611941929</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.94914570584963</v>
+        <v>62.29677903276153</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.9491457118149</v>
+        <v>66.54830535028356</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.94914565196792</v>
+        <v>28.46538543377076</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.9491457036212</v>
+        <v>57.67400188586724</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.94914571796751</v>
+        <v>64.34987366750259</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.94914565647408</v>
+        <v>17.91320971628136</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.94914569835411</v>
+        <v>48.25955353460257</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.94914570999979</v>
+        <v>55.00553628244261</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.94914566407156</v>
+        <v>17.27993331417581</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.94914571149693</v>
+        <v>43.91003851513543</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.94914572468462</v>
+        <v>49.2622448868504</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.94914568078552</v>
+        <v>34.46682696357873</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.94914572305514</v>
+        <v>59.4234019295495</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.94914573480915</v>
+        <v>65.79355258889493</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.94914573050315</v>
+        <v>68.83453478127434</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.94914575075164</v>
+        <v>78.54822564514818</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.94914575618996</v>
+        <v>84.41268559532581</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.94914569665243</v>
+        <v>39.07154005442489</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.94914574746074</v>
+        <v>71.09052921511466</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.94914576139504</v>
+        <v>79.08230689167212</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.94914569395316</v>
+        <v>55.67904844776929</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.94914569011356</v>
+        <v>54.193364060432</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.94914571089425</v>
+        <v>63.7866531761676</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.9491457168067</v>
+        <v>68.26111741180605</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.94914565713937</v>
+        <v>29.39846791131371</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.949145708655</v>
+        <v>59.50915443017369</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.94914572281269</v>
+        <v>66.29967172619438</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.94914566118054</v>
+        <v>18.41086948045622</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.94914570294675</v>
+        <v>49.42808052083706</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.94914571444393</v>
+        <v>56.26398481502159</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.94914566936008</v>
+        <v>19.24957023567658</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.94914571665655</v>
+        <v>46.6407243731695</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.94914572967608</v>
+        <v>52.11703480253183</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.94914568604921</v>
+        <v>36.56493593073969</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.94914572820394</v>
+        <v>62.18092024662135</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.94914573980808</v>
+        <v>68.63067140320854</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.94914573539581</v>
+        <v>71.87969355541827</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.94914575549457</v>
+        <v>81.58216266238416</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.94914576087734</v>
+        <v>87.65578666149804</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.94914570151923</v>
+        <v>41.52565046011358</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.94914575221045</v>
+        <v>74.43501106833816</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.94914576594191</v>
+        <v>82.52679893966638</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.94914567195365</v>
+        <v>47.32751347523993</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.9491456681649</v>
+        <v>42.56997489506024</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.94914568888343</v>
+        <v>52.26172965947165</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.94914569494716</v>
+        <v>57.28436562895254</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.94914563609262</v>
+        <v>19.62149926981076</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.94914568680893</v>
+        <v>47.89323371605379</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.94914570143214</v>
+        <v>55.97875842150204</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.94914564209501</v>
+        <v>13.24871361771691</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.94914568316975</v>
+        <v>42.74544127652926</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.94914569502517</v>
+        <v>50.66113884951643</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.94914564903257</v>
+        <v>12.37596326591176</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.94914569554602</v>
+        <v>38.13676878614201</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.94914570897122</v>
+        <v>44.75852089128794</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.94914566504643</v>
+        <v>28.12977750185114</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.94914570650326</v>
+        <v>52.3772518994204</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.94914571846897</v>
+        <v>59.86880713895253</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.94914571414079</v>
+        <v>59.72328721018653</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.9491457341879</v>
+        <v>69.5930358283329</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.94914573971552</v>
+        <v>76.23278664670335</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.94914568106966</v>
+        <v>30.97896006972578</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.94914573101492</v>
+        <v>62.16476858855559</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.94914574521421</v>
+        <v>71.55801232940637</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.94914546315088</v>
+        <v>-4.143617309150528</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.94914549592739</v>
+        <v>13.07935025102161</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.94914550644529</v>
+        <v>17.74394352940661</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.94914546386862</v>
+        <v>-6.493167455945031</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.94914550098507</v>
+        <v>7.437113309579992</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.94914551289565</v>
+        <v>11.090496446999</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.9491454705427</v>
+        <v>1.984695709774588</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.94914550362411</v>
+        <v>14.86654564856414</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.94914551423986</v>
+        <v>19.29288337669911</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.94914551658832</v>
+        <v>14.37601620161353</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.94914553290333</v>
+        <v>20.01064685843565</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.94914553818737</v>
+        <v>22.23049210684841</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.94914549356872</v>
+        <v>-1.83081006233316</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.94914553320011</v>
+        <v>11.22772382598036</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.94914554594266</v>
+        <v>18.07581048175933</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.94914553323495</v>
+        <v>-4.211185300198341</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.949145571118</v>
+        <v>16.63879971552704</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.94914558275794</v>
+        <v>23.12436784678885</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.94914553427656</v>
+        <v>-10.74441210233711</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.94914557717571</v>
+        <v>5.859418275422261</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.9491455903569</v>
+        <v>11.4658339815049</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.94914554618012</v>
+        <v>-0.5655640371156885</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.94914558441557</v>
+        <v>15.73067665157297</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.94914548240758</v>
+        <v>1.357093558690263</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.94914551668019</v>
+        <v>21.39241246607205</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.94914552710324</v>
+        <v>25.46664284709685</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.94914548511466</v>
+        <v>2.409130651141442</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.94914552392531</v>
+        <v>19.36492362275856</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.94914553572848</v>
+        <v>22.39728051917692</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.94914549259568</v>
+        <v>12.17621576552139</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.94914552718711</v>
+        <v>27.636442072073</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.94914553770712</v>
+        <v>31.46681724328423</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.94914554003787</v>
+        <v>29.26487899224621</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.94914555680035</v>
+        <v>35.21320894924035</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.94914556210098</v>
+        <v>37.4689925929144</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.94914551539627</v>
+        <v>10.21896409011831</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.94914555682213</v>
+        <v>26.62594749056879</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.94914556939181</v>
+        <v>32.74429278033244</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.94914555717228</v>
+        <v>3.794519137493772</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.94914559677386</v>
+        <v>27.8371991181932</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.94914560832326</v>
+        <v>33.85527984110596</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.9491455604516</v>
+        <v>1.389211313294929</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.94914560529683</v>
+        <v>21.4012128376362</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.9491456183755</v>
+        <v>26.50648426020327</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.94914557335571</v>
+        <v>13.23082899271151</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.94914561332568</v>
+        <v>32.45798123617003</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.94914548759239</v>
+        <v>-0.3767007363991617</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.94914552176171</v>
+        <v>20.20876209302492</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.94914553206874</v>
+        <v>24.3763671299522</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.94914549085002</v>
+        <v>1.822449720115511</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.94914552954371</v>
+        <v>19.40386722154273</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.9491455412155</v>
+        <v>22.55698312823105</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.94914549835784</v>
+        <v>11.59039618644864</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.94914553284501</v>
+        <v>27.5920162006088</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.94914554324793</v>
+        <v>31.5047850275627</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.94914554550106</v>
+        <v>29.63974730960158</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.94914556214621</v>
+        <v>35.61377932492334</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.94914556740659</v>
+        <v>38.08779672448342</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.9491455207786</v>
+        <v>9.989860958504309</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.94914556210452</v>
+        <v>27.1846706678498</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.94914557451649</v>
+        <v>33.37896106252898</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.94914556232385</v>
+        <v>2.490046655650698</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.94914560180345</v>
+        <v>27.14652213780698</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.94914561323007</v>
+        <v>33.31448269035924</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.94914556618655</v>
+        <v>1.332445605740737</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.94914561089364</v>
+        <v>22.04476296595043</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.94914562383326</v>
+        <v>27.32381212392262</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.94914557908717</v>
+        <v>13.22857474452878</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.94914561893401</v>
+        <v>33.05651663768128</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.94914547187777</v>
+        <v>-3.272651658639194</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.94914550542688</v>
+        <v>15.93309678244038</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.94914551601115</v>
+        <v>20.99289881575272</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.94914547403738</v>
+        <v>-2.068803892966127</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.94914551202873</v>
+        <v>14.00526437752715</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.94914552401447</v>
+        <v>18.12692675283113</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.94914548098922</v>
+        <v>6.560968580972894</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.94914551485042</v>
+        <v>21.3171107873338</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.94914552553315</v>
+        <v>26.0944022236755</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.9491455277339</v>
+        <v>21.52948361162125</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.94914554426985</v>
+        <v>27.4382034439148</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.94914554962284</v>
+        <v>30.30955510663745</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.94914550379668</v>
+        <v>3.476231718001127</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.94914554442485</v>
+        <v>19.09775083535217</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.94914555720309</v>
+        <v>26.35765495351078</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.94914554409973</v>
+        <v>-1.488154747955953</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.94914558287268</v>
+        <v>21.62954840843058</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.94914559460002</v>
+        <v>28.68346778352294</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.94914554670307</v>
+        <v>-4.155302319639336</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.94914559060995</v>
+        <v>14.90114599255419</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.94914560389012</v>
+        <v>21.13666615004827</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.94914555896894</v>
+        <v>6.324873584687381</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.94914559810258</v>
+        <v>24.76197750025453</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.94914559616379</v>
+        <v>21.71480823901978</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.9491455955485</v>
+        <v>16.68824079112747</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.94914561474262</v>
+        <v>24.78816006491984</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.94914562050224</v>
+        <v>29.29439616798638</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.94914556729124</v>
+        <v>-2.28182419956569</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.94914561366988</v>
+        <v>18.37989363372082</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.94914562767045</v>
+        <v>25.90043572911737</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.94914557997434</v>
+        <v>-1.114811787154611</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.94914561750452</v>
+        <v>21.71583314212122</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.94914562887068</v>
+        <v>29.43231197228238</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.94914558275654</v>
+        <v>-7.00959088850944</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.9491456252561</v>
+        <v>11.98450049604145</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.94914563812725</v>
+        <v>18.39573887033653</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.94914559611826</v>
+        <v>6.192974416694053</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.94914563399755</v>
+        <v>24.29267603176994</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.94914564546945</v>
+        <v>31.61017247969606</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.94914564425828</v>
+        <v>30.28545832048794</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.94914566287883</v>
+        <v>38.65076592348768</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.94914566815018</v>
+        <v>44.9074430374154</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.94914561484096</v>
+        <v>6.102422804489983</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.94914566066112</v>
+        <v>29.79483253012739</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.94914567430134</v>
+        <v>38.69592509777932</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.94914562498252</v>
+        <v>37.97225762315006</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.94914562400072</v>
+        <v>35.44839769162694</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.94914564365248</v>
+        <v>43.77271920835379</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.94914564942116</v>
+        <v>48.31024656632906</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.94914559394784</v>
+        <v>13.56600981878939</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.94914564238522</v>
+        <v>38.10901836548783</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.94914565621015</v>
+        <v>44.93288773346173</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.94914560468269</v>
+        <v>10.27550034627553</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.94914564391752</v>
+        <v>36.3179017244593</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.94914565515701</v>
+        <v>43.45707157422237</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.94914560971617</v>
+        <v>8.894819375775029</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.94914565414609</v>
+        <v>31.32598036571983</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.9491456668738</v>
+        <v>37.13479023344809</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.94914562408295</v>
+        <v>23.95549284817813</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.94914566368275</v>
+        <v>45.00260837027776</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.9491456750268</v>
+        <v>51.74662661988793</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.94914567341626</v>
+        <v>53.27363327615502</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.94914569248095</v>
+        <v>61.79203644089354</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.94914569773909</v>
+        <v>68.06654784264717</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.94914564224741</v>
+        <v>26.15691797170707</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.94914569009479</v>
+        <v>53.65842925912091</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.94914570351348</v>
+        <v>61.84620935235797</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.94914563046693</v>
+        <v>38.71099083492682</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.94914562934902</v>
+        <v>36.28673021836715</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.949145648851</v>
+        <v>44.6119312011234</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.94914565457335</v>
+        <v>49.38319892978898</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.94914559925469</v>
+        <v>13.89410856778475</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.94914564756382</v>
+        <v>39.29283000642067</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.94914566121959</v>
+        <v>46.24826664124339</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.94914560953913</v>
+        <v>10.25760891245907</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.94914564866902</v>
+        <v>36.9331031461429</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.94914565977414</v>
+        <v>44.18424930396054</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.94914561514248</v>
+        <v>10.23431011459375</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.94914565945356</v>
+        <v>33.38544961091674</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.9491456720291</v>
+        <v>39.33706842276467</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.94914562949429</v>
+        <v>25.39438100554102</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.94914566898818</v>
+        <v>47.06314774263154</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.9491456801966</v>
+        <v>53.90949680490581</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.94914567845185</v>
+        <v>55.62600688456012</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.94914569737675</v>
+        <v>64.1279843353235</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.94914570258535</v>
+        <v>70.62214123211068</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.94914564724742</v>
+        <v>27.95585793601846</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.94914569498724</v>
+        <v>56.30487807848277</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.94914570822274</v>
+        <v>64.61065758185065</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.94914560993901</v>
+        <v>31.27078422647299</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.94914560891912</v>
+        <v>25.80580755545746</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.94914562834715</v>
+        <v>34.18117677118482</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.9491456341779</v>
+        <v>39.40660799973979</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.94914557968903</v>
+        <v>5.210465000254143</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.94914562721105</v>
+        <v>28.79355298638146</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.94914564126055</v>
+        <v>36.89175103911667</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.94914559175001</v>
+        <v>5.692140846674246</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.94914563020538</v>
+        <v>30.90537273744491</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.94914564161951</v>
+        <v>39.10987853402075</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.94914559612457</v>
+        <v>4.011251474396893</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.94914563967182</v>
+        <v>25.58641441036975</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.94914565259729</v>
+        <v>32.55790185492803</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.94914560987407</v>
+        <v>17.71628678335426</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.94914564868717</v>
+        <v>38.0706403794592</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.94914566020748</v>
+        <v>45.8347984926243</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.94914565858267</v>
+        <v>44.38388831699435</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.94914567744559</v>
+        <v>53.00173643864736</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.94914568276487</v>
+        <v>59.97501086034374</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.94914562815995</v>
+        <v>18.27406483961008</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.94914567516282</v>
+        <v>44.94623384181067</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.94914568880286</v>
+        <v>54.40838529792444</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.94914551860099</v>
+        <v>5.132115167691552</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.94914555262828</v>
+        <v>25.7503818755575</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.94914556353891</v>
+        <v>31.15758459636166</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.94914552276133</v>
+        <v>4.684110889235445</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.94914556129418</v>
+        <v>22.03762946456602</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.9491455736495</v>
+        <v>26.4365851196715</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.94914553151004</v>
+        <v>14.60540150746678</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.94914556585387</v>
+        <v>30.57251944987685</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.949145576866</v>
+        <v>35.7502034861662</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.94914557650183</v>
+        <v>31.22632740918064</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.94914559334421</v>
+        <v>37.65950325352775</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.94914559883772</v>
+        <v>40.15620198364424</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.94914555191544</v>
+        <v>13.73029975639638</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.94914559278824</v>
+        <v>29.8769394283984</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.94914560605824</v>
+        <v>38.05394788009546</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.94914559025359</v>
+        <v>4.244959018243986</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.94914562932393</v>
+        <v>28.37683593889205</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.94914564120963</v>
+        <v>34.82833610038451</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.94914559431026</v>
+        <v>-1.260512001992872</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.9491456385539</v>
+        <v>18.58598323675627</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.9491456520134</v>
+        <v>24.16525621413858</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.94914560816202</v>
+        <v>9.734382757347742</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.9491456475958</v>
+        <v>29.0215241444582</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.94914554018265</v>
+        <v>12.78545952103839</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.9491455757467</v>
+        <v>36.37416221292787</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.94914558652536</v>
+        <v>41.07789915883168</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.94914554642883</v>
+        <v>15.97417676998021</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.94914558670193</v>
+        <v>36.51062836260427</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.9491455989078</v>
+        <v>40.17950580104787</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.94914555611659</v>
+        <v>27.36710942706825</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.94914559201148</v>
+        <v>46.06377960352779</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.94914560289041</v>
+        <v>50.53195381199413</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.94914560252716</v>
+        <v>48.91851269035857</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.94914561982412</v>
+        <v>55.66122723648055</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.94914562530811</v>
+        <v>58.10802373337583</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.94914557624882</v>
+        <v>28.45027601071135</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.94914561895498</v>
+        <v>48.07458841226472</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.94914563200032</v>
+        <v>55.42024591466593</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.94914561661698</v>
+        <v>14.6814481532968</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.94914565744106</v>
+        <v>42.16358297385456</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.94914566918533</v>
+        <v>47.99437852384759</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.9491456229753</v>
+        <v>13.52347232389645</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.94914566920491</v>
+        <v>36.93363883069911</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.94914568250424</v>
+        <v>41.86343429661814</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.94914563796677</v>
+        <v>26.37880416981746</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.94914567917061</v>
+        <v>48.74847924876715</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.94914554502843</v>
+        <v>11.45722282821858</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.94914558048529</v>
+        <v>35.618280225882</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.94914559113815</v>
+        <v>40.39738493008622</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.94914555181116</v>
+        <v>15.87519344992161</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.94914559196286</v>
+        <v>37.05925117901378</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.94914560402628</v>
+        <v>40.83481626259007</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.94914556152002</v>
+        <v>27.29357303638776</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.94914559730672</v>
+        <v>46.55439204742382</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.94914560805868</v>
+        <v>51.08573050181773</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.94914560765488</v>
+        <v>49.84229719669214</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.94914562483326</v>
+        <v>56.61718098405751</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.94914563027198</v>
+        <v>59.26802052535392</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.94914558129963</v>
+        <v>28.72104241836345</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.94914562390428</v>
+        <v>49.15860098482433</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.94914563677767</v>
+        <v>56.56704837939481</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.94914562145943</v>
+        <v>13.89400539308038</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.94914566215898</v>
+        <v>42.02054001200929</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.94914567377013</v>
+        <v>47.98125734092219</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.94914562838811</v>
+        <v>14.07136120110483</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.94914567447669</v>
+        <v>38.21215427456936</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.94914568762527</v>
+        <v>43.2997575146838</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.94914564337499</v>
+        <v>27.02024695642087</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.94914568445314</v>
+        <v>50.02151914447082</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.94914552827758</v>
+        <v>7.645943931304551</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.94914556311005</v>
+        <v>30.39427880305731</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.94914557407962</v>
+        <v>36.15904266461349</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.94914553396519</v>
+        <v>11.01081800579114</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.94914557340983</v>
+        <v>30.66033172623736</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.94914558583189</v>
+        <v>35.49833760630135</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.9491455430376</v>
+        <v>21.20484074155923</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.94914557819409</v>
+        <v>39.18816912568045</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.94914558926571</v>
+        <v>44.67582510781334</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.94914558874818</v>
+        <v>40.56037577858743</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.94914560582583</v>
+        <v>47.30997648259238</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.94914561139218</v>
+        <v>50.42790181093061</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.9491455631995</v>
+        <v>21.04081562770767</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.94914560510833</v>
+        <v>39.90174477215967</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.94914561840191</v>
+        <v>48.4875276820504</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.94914560219776</v>
+        <v>9.032699406908229</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.94914564219342</v>
+        <v>35.60527912867258</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.9491456541539</v>
+        <v>42.5761847380899</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.9491456078933</v>
+        <v>7.661877544156717</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.9491456531848</v>
+        <v>30.13617531343656</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.94914566672896</v>
+        <v>36.30554219515201</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.9491456221589</v>
+        <v>19.11331595019829</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.94914566252662</v>
+        <v>40.70858804821486</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.94914565959207</v>
+        <v>34.99025821942207</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.94914565622559</v>
+        <v>30.86531042772402</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.94914567600063</v>
+        <v>39.69409843518888</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.94914568188333</v>
+        <v>44.10107335543699</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.94914562642803</v>
+        <v>10.74786520575094</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.94914567402971</v>
+        <v>34.80304195061381</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.94914568833258</v>
+        <v>42.50529389018814</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.94914563249791</v>
+        <v>5.60421210978372</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.94914567106396</v>
+        <v>31.43318311580165</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.94914568264056</v>
+        <v>39.04210841516487</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.94914563791106</v>
+        <v>1.094404718473015</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.94914568158364</v>
+        <v>23.01390920752764</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.9491456946931</v>
+        <v>29.29392744526297</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.94914565294653</v>
+        <v>15.0624372063699</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.94914569187134</v>
+        <v>35.8673369592301</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.94914570355563</v>
+        <v>43.10972384791027</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.94914569963823</v>
+        <v>43.2154182755868</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.94914571875502</v>
+        <v>52.23955576715015</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.94914572413015</v>
+        <v>58.22559196329308</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.94914566889447</v>
+        <v>17.62837612064091</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.9491457157181</v>
+        <v>44.51190144026029</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.94914572964901</v>
+        <v>53.49115341909277</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.94914569102413</v>
+        <v>54.09413581847917</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.94914568729908</v>
+        <v>52.62655246912716</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.94914570753073</v>
+        <v>61.65849688100349</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.9491457133873</v>
+        <v>65.99065289806313</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.94914565565215</v>
+        <v>29.48315122078858</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.94914570534245</v>
+        <v>57.54014577216537</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.94914571940236</v>
+        <v>64.39656673681128</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.94914565939792</v>
+        <v>19.19454268932405</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.94914569969741</v>
+        <v>48.3953484878588</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.94914571110008</v>
+        <v>55.27494838672847</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.94914566710929</v>
+        <v>19.40372153657341</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.94914571274484</v>
+        <v>44.91615570802882</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.94914572565735</v>
+        <v>50.44866788439086</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.94914568326798</v>
+        <v>35.41499837767473</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.94914572394234</v>
+        <v>59.3214997387976</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.94914573545109</v>
+        <v>65.83878265194619</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.94914573113155</v>
+        <v>68.95868306409892</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.94914575068832</v>
+        <v>78.11324082110234</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.94914575602151</v>
+        <v>84.0168755145762</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.94914569859983</v>
+        <v>40.32039911303443</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.94914574747074</v>
+        <v>71.14465511959526</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.94914576111805</v>
+        <v>79.26663332431598</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.9491456961723</v>
+        <v>55.48629624580622</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.94914569234458</v>
+        <v>54.12233748029959</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.94914571242296</v>
+        <v>63.16245422458704</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.9491457182281</v>
+        <v>67.71444837800757</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.94914566066423</v>
+        <v>30.43420713474058</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.94914571022521</v>
+        <v>59.37703874979206</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.94914572410132</v>
+        <v>66.34909865912931</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.94914566395978</v>
+        <v>19.72187992640774</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.94914570415144</v>
+        <v>49.58379139024224</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.94914571540977</v>
+        <v>56.55347316147738</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.94914567222918</v>
+        <v>21.37002785973541</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.94914571774263</v>
+        <v>47.63041512198841</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.94914573049168</v>
+        <v>53.28796316989106</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.94914568837107</v>
+        <v>37.51934507297522</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.94914572893662</v>
+        <v>62.07589892727628</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.94914574029968</v>
+        <v>68.67249442822326</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.9491457358785</v>
+        <v>71.98881536810849</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.94914575529081</v>
+        <v>81.13453646310596</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.94914576056999</v>
+        <v>87.24480638228847</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.94914570331951</v>
+        <v>42.76507312578325</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.9491457520806</v>
+        <v>74.46351081914035</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.94914576553034</v>
+        <v>82.68737316728577</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.94914567459836</v>
+        <v>47.14986828479728</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.94914567080705</v>
+        <v>42.56791314098889</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.94914569082661</v>
+        <v>51.71435721634859</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.94914569678289</v>
+        <v>56.80943587068064</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.94914564000473</v>
+        <v>20.68857514068913</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.94914568879216</v>
+        <v>47.84013169561754</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.94914570312442</v>
+        <v>56.09873596310845</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.94914564524263</v>
+        <v>14.52092712635327</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.94914568476466</v>
+        <v>42.88778755982924</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.94914569637316</v>
+        <v>50.92767584525684</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.94914565231521</v>
+        <v>14.47453033574218</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.94914569707036</v>
+        <v>39.13291226342854</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.94914571021594</v>
+        <v>45.9251047828653</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.94914566777929</v>
+        <v>29.09811047635053</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.94914570766898</v>
+        <v>52.30781496561461</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.94914571938546</v>
+        <v>59.93667677240887</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.94914571503626</v>
+        <v>59.91736725783522</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.9491457344001</v>
+        <v>69.23828861462046</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.94914573982309</v>
+        <v>75.90803707338679</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.94914568325947</v>
+        <v>32.27114854844393</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.94914573129928</v>
+        <v>62.28811997623903</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>29.94914574520678</v>
+        <v>71.80280389085102</v>
       </c>
     </row>
   </sheetData>
